--- a/data/pca/factorExposure/factorExposure_2011-07-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-07-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -704,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,39 +747,63 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.02275143877798986</v>
+        <v>0.01920066391307282</v>
       </c>
       <c r="C2">
-        <v>0.001348666450225554</v>
+        <v>-0.0008253024134188548</v>
       </c>
       <c r="D2">
-        <v>0.04763173775124478</v>
+        <v>0.004180262087510301</v>
       </c>
       <c r="E2">
-        <v>0.03003081735634959</v>
+        <v>0.03653176622054607</v>
       </c>
       <c r="F2">
-        <v>-0.04144803195324974</v>
+        <v>0.00479474609187695</v>
       </c>
       <c r="G2">
-        <v>0.02658489944217195</v>
+        <v>-0.02716423283059502</v>
       </c>
       <c r="H2">
-        <v>0.00893925705063775</v>
+        <v>-0.01846250547392089</v>
       </c>
       <c r="I2">
-        <v>0.02107310789337642</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.03368036311571822</v>
+      </c>
+      <c r="J2">
+        <v>0.05718433234891508</v>
+      </c>
+      <c r="K2">
+        <v>0.004568959478852131</v>
+      </c>
+      <c r="L2">
+        <v>-0.04012724948141562</v>
+      </c>
+      <c r="M2">
+        <v>0.03326162556453278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -793,39 +829,63 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.07068866792286296</v>
+        <v>0.106117017752769</v>
       </c>
       <c r="C4">
-        <v>-0.05823765432334465</v>
+        <v>0.07698409274604567</v>
       </c>
       <c r="D4">
-        <v>0.03780643644384173</v>
+        <v>0.02083484428415128</v>
       </c>
       <c r="E4">
-        <v>0.04654251647664822</v>
+        <v>0.04939452717214606</v>
       </c>
       <c r="F4">
-        <v>0.0223328296932947</v>
+        <v>0.09815397943103582</v>
       </c>
       <c r="G4">
-        <v>0.02003393943883611</v>
+        <v>0.0175799494027997</v>
       </c>
       <c r="H4">
-        <v>0.003179532971343743</v>
+        <v>0.06320539820027189</v>
       </c>
       <c r="I4">
-        <v>0.0132514657299024</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>-0.03400038759524855</v>
+      </c>
+      <c r="J4">
+        <v>-0.000893913750929216</v>
+      </c>
+      <c r="K4">
+        <v>-0.08162578186498881</v>
+      </c>
+      <c r="L4">
+        <v>0.06105966874861265</v>
+      </c>
+      <c r="M4">
+        <v>0.0186603269158494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -851,329 +911,473 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>-0.1257279700073972</v>
+        <v>0.1308492167498221</v>
       </c>
       <c r="C6">
-        <v>-0.03050368652723316</v>
+        <v>0.05391278041955139</v>
       </c>
       <c r="D6">
-        <v>0.05881430122707824</v>
+        <v>0.003424807351476794</v>
       </c>
       <c r="E6">
-        <v>0.1060047794734557</v>
+        <v>0.03329895349293708</v>
       </c>
       <c r="F6">
-        <v>0.06706166425046979</v>
+        <v>0.03892877965445379</v>
       </c>
       <c r="G6">
-        <v>-0.08874941624359443</v>
+        <v>0.1484570360532051</v>
       </c>
       <c r="H6">
-        <v>-0.1365650084640823</v>
+        <v>-0.07878942890969902</v>
       </c>
       <c r="I6">
-        <v>-0.2394178282596686</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>-0.09746270753740141</v>
+      </c>
+      <c r="J6">
+        <v>-0.1361840779537667</v>
+      </c>
+      <c r="K6">
+        <v>-0.3775829450526819</v>
+      </c>
+      <c r="L6">
+        <v>-0.1777281814972758</v>
+      </c>
+      <c r="M6">
+        <v>-0.03950590629414018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>-0.06510252538613703</v>
+        <v>0.07066179817375791</v>
       </c>
       <c r="C7">
-        <v>-0.05309463996353059</v>
+        <v>0.07397309500913254</v>
       </c>
       <c r="D7">
-        <v>0.05356318905004263</v>
+        <v>0.005266183590592568</v>
       </c>
       <c r="E7">
-        <v>0.03504423448297342</v>
+        <v>0.04531741537557659</v>
       </c>
       <c r="F7">
-        <v>0.03748035405588104</v>
+        <v>0.01714320804449033</v>
       </c>
       <c r="G7">
-        <v>-0.02007033372296614</v>
+        <v>0.002564275623399176</v>
       </c>
       <c r="H7">
-        <v>-0.007085068782037068</v>
+        <v>0.0519034077437568</v>
       </c>
       <c r="I7">
-        <v>0.05185949598203394</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>-0.03211105677414354</v>
+      </c>
+      <c r="J7">
+        <v>0.000411679274795335</v>
+      </c>
+      <c r="K7">
+        <v>0.02063897304874706</v>
+      </c>
+      <c r="L7">
+        <v>0.09581153419797381</v>
+      </c>
+      <c r="M7">
+        <v>-0.001270308810164025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>-0.02619831529033125</v>
+        <v>0.03533791934857347</v>
       </c>
       <c r="C8">
-        <v>-0.01320189279737236</v>
+        <v>0.01014978975075869</v>
       </c>
       <c r="D8">
-        <v>0.0359169877146609</v>
+        <v>0.01804673540938152</v>
       </c>
       <c r="E8">
-        <v>0.05509304905053946</v>
+        <v>0.04968619380775934</v>
       </c>
       <c r="F8">
-        <v>-0.04207380103498187</v>
+        <v>0.1001979914572022</v>
       </c>
       <c r="G8">
-        <v>-0.03085780452552215</v>
+        <v>0.01323515656832798</v>
       </c>
       <c r="H8">
-        <v>-0.007177106409552048</v>
+        <v>0.04112147746552863</v>
       </c>
       <c r="I8">
-        <v>0.05038868469112368</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-0.01679224746344892</v>
+      </c>
+      <c r="J8">
+        <v>0.03312045527929789</v>
+      </c>
+      <c r="K8">
+        <v>-0.07595560252903594</v>
+      </c>
+      <c r="L8">
+        <v>0.05099820788746403</v>
+      </c>
+      <c r="M8">
+        <v>-0.006309873066190522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>-0.07268132377763312</v>
+        <v>0.08442835698489519</v>
       </c>
       <c r="C9">
-        <v>-0.07608609506818875</v>
+        <v>0.0677752518027826</v>
       </c>
       <c r="D9">
-        <v>0.04240236980030834</v>
+        <v>0.002334307082805388</v>
       </c>
       <c r="E9">
-        <v>0.03103952205080269</v>
+        <v>0.03199141382117495</v>
       </c>
       <c r="F9">
-        <v>0.00775465234437746</v>
+        <v>0.09834631534886334</v>
       </c>
       <c r="G9">
-        <v>0.01958877371560752</v>
+        <v>0.008945945590116404</v>
       </c>
       <c r="H9">
-        <v>0.007223263971385493</v>
+        <v>0.0629521354484934</v>
       </c>
       <c r="I9">
-        <v>0.02566263408736926</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>-0.04290286588715553</v>
+      </c>
+      <c r="J9">
+        <v>-0.001615965114204844</v>
+      </c>
+      <c r="K9">
+        <v>-0.04322197360247512</v>
+      </c>
+      <c r="L9">
+        <v>0.03128672635969356</v>
+      </c>
+      <c r="M9">
+        <v>-0.007302206947349907</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>-0.06267023952298299</v>
+        <v>0.1069662038083566</v>
       </c>
       <c r="C10">
-        <v>0.1385868478271582</v>
+        <v>-0.1700350484112076</v>
       </c>
       <c r="D10">
-        <v>0.05403314187001845</v>
+        <v>0.009079047672853197</v>
       </c>
       <c r="E10">
-        <v>0.03442594809445147</v>
+        <v>0.04990582825962608</v>
       </c>
       <c r="F10">
-        <v>0.02485394840549603</v>
+        <v>-0.01377322240764068</v>
       </c>
       <c r="G10">
-        <v>-0.05050360881105617</v>
+        <v>0.01340079638690433</v>
       </c>
       <c r="H10">
-        <v>-0.0441600105897154</v>
+        <v>0.0005117077178942696</v>
       </c>
       <c r="I10">
-        <v>-0.008527269969497998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>-0.01933066402460205</v>
+      </c>
+      <c r="J10">
+        <v>-0.0237412601133133</v>
+      </c>
+      <c r="K10">
+        <v>0.07341302287578337</v>
+      </c>
+      <c r="L10">
+        <v>-0.005864832469258361</v>
+      </c>
+      <c r="M10">
+        <v>-0.05345157114230813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>-0.06492015910664255</v>
+        <v>0.06636514676324884</v>
       </c>
       <c r="C11">
-        <v>-0.08924397519354474</v>
+        <v>0.07017179482941122</v>
       </c>
       <c r="D11">
-        <v>0.03678804210112152</v>
+        <v>-0.03080416918413311</v>
       </c>
       <c r="E11">
-        <v>0.005022253915727525</v>
+        <v>0.01399508190376768</v>
       </c>
       <c r="F11">
-        <v>-0.04422307369308877</v>
+        <v>0.1053174695693844</v>
       </c>
       <c r="G11">
-        <v>0.02165380521033933</v>
+        <v>-0.01489190433177681</v>
       </c>
       <c r="H11">
-        <v>0.03555853153803845</v>
+        <v>0.0444700964113792</v>
       </c>
       <c r="I11">
-        <v>0.06795629798824629</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>-0.03899273124060647</v>
+      </c>
+      <c r="J11">
+        <v>0.05002722437141103</v>
+      </c>
+      <c r="K11">
+        <v>0.07813604684702363</v>
+      </c>
+      <c r="L11">
+        <v>-0.007037701987370448</v>
+      </c>
+      <c r="M11">
+        <v>-0.07309820064193598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>-0.05832456205278309</v>
+        <v>0.0708706338558214</v>
       </c>
       <c r="C12">
-        <v>-0.05472018006742995</v>
+        <v>0.06305646781809057</v>
       </c>
       <c r="D12">
-        <v>0.01457182527261363</v>
+        <v>-0.02998769904271862</v>
       </c>
       <c r="E12">
-        <v>0.01491497246075135</v>
+        <v>0.004963741967407756</v>
       </c>
       <c r="F12">
-        <v>0.009396389221909171</v>
+        <v>0.1183400345153758</v>
       </c>
       <c r="G12">
-        <v>0.004857798184411749</v>
+        <v>-0.01775000078073164</v>
       </c>
       <c r="H12">
-        <v>0.02503004696742601</v>
+        <v>0.03640491041435866</v>
       </c>
       <c r="I12">
-        <v>0.08144327268376597</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>-0.0617446460490914</v>
+      </c>
+      <c r="J12">
+        <v>0.07031055115200949</v>
+      </c>
+      <c r="K12">
+        <v>0.04013612700081487</v>
+      </c>
+      <c r="L12">
+        <v>0.01884783015194233</v>
+      </c>
+      <c r="M12">
+        <v>-0.1161654389397005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>-0.05380752751165856</v>
+        <v>0.04625288712209643</v>
       </c>
       <c r="C13">
-        <v>-0.01854708974430158</v>
+        <v>0.03363284980715973</v>
       </c>
       <c r="D13">
-        <v>0.01015080946111222</v>
+        <v>0.02054166965180868</v>
       </c>
       <c r="E13">
-        <v>0.01134150869874298</v>
+        <v>0.009942152018892227</v>
       </c>
       <c r="F13">
-        <v>-0.006566736211908101</v>
+        <v>0.04511361662736065</v>
       </c>
       <c r="G13">
-        <v>0.0478914321427969</v>
+        <v>-0.0208348913422892</v>
       </c>
       <c r="H13">
-        <v>0.02144541248086895</v>
+        <v>0.03791919275076717</v>
       </c>
       <c r="I13">
-        <v>0.03435973767565786</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>-0.01989196259306054</v>
+      </c>
+      <c r="J13">
+        <v>-0.003730636822140817</v>
+      </c>
+      <c r="K13">
+        <v>-0.03614125925670213</v>
+      </c>
+      <c r="L13">
+        <v>0.09210092951025603</v>
+      </c>
+      <c r="M13">
+        <v>0.003060345135977731</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>-0.04111052799351386</v>
+        <v>0.04613531652158206</v>
       </c>
       <c r="C14">
-        <v>-0.02668559339747175</v>
+        <v>0.02800756864922974</v>
       </c>
       <c r="D14">
-        <v>0.02248875782789649</v>
+        <v>-0.008369370184397072</v>
       </c>
       <c r="E14">
-        <v>-0.007113689830701473</v>
+        <v>0.01829157314234228</v>
       </c>
       <c r="F14">
-        <v>0.02873943399892538</v>
+        <v>0.04446948547383275</v>
       </c>
       <c r="G14">
-        <v>0.001376621712229832</v>
+        <v>-0.01921471066264471</v>
       </c>
       <c r="H14">
-        <v>-0.07997799610108218</v>
+        <v>0.06979969335055627</v>
       </c>
       <c r="I14">
-        <v>-0.02681143220785388</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>-0.01803081354527133</v>
+      </c>
+      <c r="J14">
+        <v>-0.04472686525586644</v>
+      </c>
+      <c r="K14">
+        <v>-0.05047581283921401</v>
+      </c>
+      <c r="L14">
+        <v>0.05172457440390651</v>
+      </c>
+      <c r="M14">
+        <v>0.02689114237755098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>-0.03743479908456959</v>
+        <v>0.03115494734697511</v>
       </c>
       <c r="C15">
-        <v>0.003572532574731591</v>
+        <v>0.00889173269821006</v>
       </c>
       <c r="D15">
-        <v>-0.005389852271919004</v>
+        <v>0.06005530922953547</v>
       </c>
       <c r="E15">
-        <v>0.02253823484907354</v>
+        <v>0.005823115716907547</v>
       </c>
       <c r="F15">
-        <v>0.01590207598475253</v>
+        <v>0.002121581625229193</v>
       </c>
       <c r="G15">
-        <v>0.01086033895188329</v>
+        <v>0.03670810145284673</v>
       </c>
       <c r="H15">
-        <v>0.005862171637923051</v>
+        <v>0.03532516958907799</v>
       </c>
       <c r="I15">
-        <v>-0.01122340086438043</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.02324160280825682</v>
+      </c>
+      <c r="J15">
+        <v>-0.03817793211944014</v>
+      </c>
+      <c r="K15">
+        <v>-0.04898432642150758</v>
+      </c>
+      <c r="L15">
+        <v>0.03905182250397145</v>
+      </c>
+      <c r="M15">
+        <v>-0.00522525298944939</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>-0.0497416338413631</v>
+        <v>0.070781259055764</v>
       </c>
       <c r="C16">
-        <v>-0.087615860186605</v>
+        <v>0.07896176620829537</v>
       </c>
       <c r="D16">
-        <v>0.02812154431201307</v>
+        <v>-0.02004895590438581</v>
       </c>
       <c r="E16">
-        <v>0.0257783852966351</v>
+        <v>0.01403185064549345</v>
       </c>
       <c r="F16">
-        <v>-0.0102265281981653</v>
+        <v>0.1089750139498608</v>
       </c>
       <c r="G16">
-        <v>0.03460540123810497</v>
+        <v>-0.02683560421889587</v>
       </c>
       <c r="H16">
-        <v>0.009844138920627821</v>
+        <v>0.05047757624197381</v>
       </c>
       <c r="I16">
-        <v>0.1030664872717043</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>-0.063770269430376</v>
+      </c>
+      <c r="J16">
+        <v>0.06140209624996593</v>
+      </c>
+      <c r="K16">
+        <v>0.05539150016245951</v>
+      </c>
+      <c r="L16">
+        <v>0.01967667742350319</v>
+      </c>
+      <c r="M16">
+        <v>-0.05779266437716765</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1199,10 +1403,22 @@
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1228,10 +1444,22 @@
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1257,213 +1485,309 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>-0.03856225753002159</v>
+        <v>0.04340373300796388</v>
       </c>
       <c r="C20">
-        <v>-0.04311651088893036</v>
+        <v>0.03035701581938763</v>
       </c>
       <c r="D20">
-        <v>0.01705822691221741</v>
+        <v>0.02431975065054395</v>
       </c>
       <c r="E20">
-        <v>0.01418557535455203</v>
+        <v>0.02180252106250945</v>
       </c>
       <c r="F20">
-        <v>0.008556640081172972</v>
+        <v>0.04771409229947867</v>
       </c>
       <c r="G20">
-        <v>0.04025838657696373</v>
+        <v>-0.02470051204390434</v>
       </c>
       <c r="H20">
-        <v>-0.0008240394809626917</v>
+        <v>0.04705086075624246</v>
       </c>
       <c r="I20">
-        <v>0.04068673585666734</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>-0.05247996574564721</v>
+      </c>
+      <c r="J20">
+        <v>-0.002557039133830329</v>
+      </c>
+      <c r="K20">
+        <v>-0.03229701123502164</v>
+      </c>
+      <c r="L20">
+        <v>0.05949889696801144</v>
+      </c>
+      <c r="M20">
+        <v>-0.03552284700256823</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>-0.005758603915170409</v>
+        <v>0.02414273489262809</v>
       </c>
       <c r="C21">
-        <v>-0.008831642919833196</v>
+        <v>0.01787234018521924</v>
       </c>
       <c r="D21">
-        <v>-0.003539212673573916</v>
+        <v>0.01665016835123247</v>
       </c>
       <c r="E21">
-        <v>0.07303264769175903</v>
+        <v>0.01648726101382425</v>
       </c>
       <c r="F21">
-        <v>0.03711688793110474</v>
+        <v>0.04818287715665849</v>
       </c>
       <c r="G21">
-        <v>-0.08739288876184899</v>
+        <v>0.09832882217803576</v>
       </c>
       <c r="H21">
-        <v>0.008482015429646836</v>
+        <v>0.005029668755655504</v>
       </c>
       <c r="I21">
-        <v>-0.06041658362104583</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>-0.05276189810204981</v>
+      </c>
+      <c r="J21">
+        <v>-0.0538294392399194</v>
+      </c>
+      <c r="K21">
+        <v>-0.04041640901955388</v>
+      </c>
+      <c r="L21">
+        <v>0.06942110898363638</v>
+      </c>
+      <c r="M21">
+        <v>-0.01123559283130456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>-0.01487493481628579</v>
+        <v>0.04247774436129656</v>
       </c>
       <c r="C22">
-        <v>-0.04517013646634754</v>
+        <v>0.02669619354401096</v>
       </c>
       <c r="D22">
-        <v>-0.1439491993939966</v>
+        <v>0.6556461380932839</v>
       </c>
       <c r="E22">
-        <v>0.4868845600127179</v>
+        <v>0.05024184442622892</v>
       </c>
       <c r="F22">
-        <v>0.1715226533726631</v>
+        <v>-0.07467617566464237</v>
       </c>
       <c r="G22">
-        <v>0.1235211391621054</v>
+        <v>-0.06992668245896243</v>
       </c>
       <c r="H22">
-        <v>0.2654920123393003</v>
+        <v>-0.06683227443954537</v>
       </c>
       <c r="I22">
-        <v>-0.0249021814752934</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>-0.08570532516642541</v>
+      </c>
+      <c r="J22">
+        <v>-0.04911389873998885</v>
+      </c>
+      <c r="K22">
+        <v>0.08467803083136678</v>
+      </c>
+      <c r="L22">
+        <v>-0.02282489617308501</v>
+      </c>
+      <c r="M22">
+        <v>0.04152865407310789</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>-0.0157903478862043</v>
+        <v>0.04318266025708934</v>
       </c>
       <c r="C23">
-        <v>-0.04385313124486541</v>
+        <v>0.02694912461574742</v>
       </c>
       <c r="D23">
-        <v>-0.1435159243224727</v>
+        <v>0.6572819142253455</v>
       </c>
       <c r="E23">
-        <v>0.4881581586832809</v>
+        <v>0.05123384749133073</v>
       </c>
       <c r="F23">
-        <v>0.1685326573627985</v>
+        <v>-0.06987877155517243</v>
       </c>
       <c r="G23">
-        <v>0.1207875689711867</v>
+        <v>-0.07024857208418092</v>
       </c>
       <c r="H23">
-        <v>0.2632507999388028</v>
+        <v>-0.06796968079740558</v>
       </c>
       <c r="I23">
-        <v>-0.0262247462122188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>-0.08459501517462907</v>
+      </c>
+      <c r="J23">
+        <v>-0.0494991054627269</v>
+      </c>
+      <c r="K23">
+        <v>0.08063031129244168</v>
+      </c>
+      <c r="L23">
+        <v>-0.0273254843859733</v>
+      </c>
+      <c r="M23">
+        <v>0.04263278247919224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>-0.06851632311789591</v>
+        <v>0.07647700331147718</v>
       </c>
       <c r="C24">
-        <v>-0.08163716482503894</v>
+        <v>0.07623068141908197</v>
       </c>
       <c r="D24">
-        <v>0.04350885653340412</v>
+        <v>-0.01769367834306584</v>
       </c>
       <c r="E24">
-        <v>0.03744534540651177</v>
+        <v>0.01938515084375339</v>
       </c>
       <c r="F24">
-        <v>-0.02766307153027694</v>
+        <v>0.1118594937575274</v>
       </c>
       <c r="G24">
-        <v>0.009285158076089567</v>
+        <v>-0.01585371239016022</v>
       </c>
       <c r="H24">
-        <v>0.01498318709492508</v>
+        <v>0.03628550112404317</v>
       </c>
       <c r="I24">
-        <v>0.0570994357684383</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>-0.05757722609007382</v>
+      </c>
+      <c r="J24">
+        <v>0.04893538236331147</v>
+      </c>
+      <c r="K24">
+        <v>0.05089391558007479</v>
+      </c>
+      <c r="L24">
+        <v>-0.01364946954228537</v>
+      </c>
+      <c r="M24">
+        <v>-0.07911734777292939</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>-0.06160183683082775</v>
+        <v>0.07307492524445923</v>
       </c>
       <c r="C25">
-        <v>-0.04077771931942985</v>
+        <v>0.04932312650765117</v>
       </c>
       <c r="D25">
-        <v>0.0362856670168259</v>
+        <v>-0.03185064671453342</v>
       </c>
       <c r="E25">
-        <v>0.04257195301678765</v>
+        <v>0.01709839536051053</v>
       </c>
       <c r="F25">
-        <v>-0.02514838136604728</v>
+        <v>0.1154934421610509</v>
       </c>
       <c r="G25">
-        <v>0.02830455092574571</v>
+        <v>-0.03165200711207729</v>
       </c>
       <c r="H25">
-        <v>-0.02082304505291058</v>
+        <v>0.05423520228415233</v>
       </c>
       <c r="I25">
-        <v>0.04725413723520241</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>-0.0648256788597979</v>
+      </c>
+      <c r="J25">
+        <v>0.06389009425983186</v>
+      </c>
+      <c r="K25">
+        <v>0.05083358971528181</v>
+      </c>
+      <c r="L25">
+        <v>-0.0324569261994107</v>
+      </c>
+      <c r="M25">
+        <v>-0.07246119964137364</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>-0.03613571697831289</v>
+        <v>0.04227762791465806</v>
       </c>
       <c r="C26">
-        <v>-0.02619261094282059</v>
+        <v>0.02263278029332692</v>
       </c>
       <c r="D26">
-        <v>0.03869447148897246</v>
+        <v>0.01369137448952692</v>
       </c>
       <c r="E26">
-        <v>-0.0004874908487313049</v>
+        <v>0.00274186677331778</v>
       </c>
       <c r="F26">
-        <v>0.03416572687500314</v>
+        <v>0.03554236370696511</v>
       </c>
       <c r="G26">
-        <v>0.02762107397208975</v>
+        <v>-0.004534140913622275</v>
       </c>
       <c r="H26">
-        <v>0.01436551999535647</v>
+        <v>0.04414584569369314</v>
       </c>
       <c r="I26">
-        <v>0.02707994631155783</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>-0.01837176682081835</v>
+      </c>
+      <c r="J26">
+        <v>-0.09144830021444769</v>
+      </c>
+      <c r="K26">
+        <v>-0.03532856741534782</v>
+      </c>
+      <c r="L26">
+        <v>0.1306064471521362</v>
+      </c>
+      <c r="M26">
+        <v>0.03162855131490915</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1489,271 +1813,391 @@
       <c r="I27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>-0.1230076348746612</v>
+        <v>0.143239235118955</v>
       </c>
       <c r="C28">
-        <v>0.2956688404132009</v>
+        <v>-0.2877494026659753</v>
       </c>
       <c r="D28">
-        <v>0.0279381531836948</v>
+        <v>-0.009119655322227735</v>
       </c>
       <c r="E28">
-        <v>-0.007878047455757205</v>
+        <v>0.02490234600518264</v>
       </c>
       <c r="F28">
-        <v>0.04990521983508442</v>
+        <v>-0.002952399777163078</v>
       </c>
       <c r="G28">
-        <v>-0.04315590738533821</v>
+        <v>0.01779333467772179</v>
       </c>
       <c r="H28">
-        <v>-0.01394660342864906</v>
+        <v>-0.01411055894859849</v>
       </c>
       <c r="I28">
-        <v>0.08559245250533074</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>-0.01696681922095967</v>
+      </c>
+      <c r="J28">
+        <v>0.008989153493592826</v>
+      </c>
+      <c r="K28">
+        <v>-0.01419290530560164</v>
+      </c>
+      <c r="L28">
+        <v>0.04779288479896476</v>
+      </c>
+      <c r="M28">
+        <v>0.03673085931933821</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>-0.04793246778810033</v>
+        <v>0.04489448941463584</v>
       </c>
       <c r="C29">
-        <v>-0.01635198205395823</v>
+        <v>0.02289232128209089</v>
       </c>
       <c r="D29">
-        <v>0.01195234081934621</v>
+        <v>0.001707392626621981</v>
       </c>
       <c r="E29">
-        <v>0.02383211513864743</v>
+        <v>0.02146406912749376</v>
       </c>
       <c r="F29">
-        <v>0.009702213542448386</v>
+        <v>0.04636492342402668</v>
       </c>
       <c r="G29">
-        <v>0.01204686421677323</v>
+        <v>-0.03608400969481729</v>
       </c>
       <c r="H29">
-        <v>-0.0296237298116242</v>
+        <v>0.0560899892456464</v>
       </c>
       <c r="I29">
-        <v>0.005799562757413588</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>-0.01799344111424622</v>
+      </c>
+      <c r="J29">
+        <v>-0.04086668643374189</v>
+      </c>
+      <c r="K29">
+        <v>-0.03561781712762806</v>
+      </c>
+      <c r="L29">
+        <v>0.03712073611318816</v>
+      </c>
+      <c r="M29">
+        <v>0.01628928326514004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>-0.1174706340919965</v>
+        <v>0.09921141713012438</v>
       </c>
       <c r="C30">
-        <v>-0.07557940025993062</v>
+        <v>0.06482989758867369</v>
       </c>
       <c r="D30">
-        <v>0.06950874873191537</v>
+        <v>-0.0008333530822264715</v>
       </c>
       <c r="E30">
-        <v>0.05585581270386809</v>
+        <v>0.03409830342105043</v>
       </c>
       <c r="F30">
-        <v>0.03529389538026934</v>
+        <v>0.1642224857853859</v>
       </c>
       <c r="G30">
-        <v>-0.002670103276451842</v>
+        <v>-0.05427230263486561</v>
       </c>
       <c r="H30">
-        <v>-0.01872666305373974</v>
+        <v>0.001611032839710129</v>
       </c>
       <c r="I30">
-        <v>0.0810224536020288</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>-0.2863251585780246</v>
+      </c>
+      <c r="J30">
+        <v>-0.03407164212565644</v>
+      </c>
+      <c r="K30">
+        <v>-0.02496098030307353</v>
+      </c>
+      <c r="L30">
+        <v>0.2102625035146617</v>
+      </c>
+      <c r="M30">
+        <v>0.10836173679935</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>-0.04498977796992826</v>
+        <v>0.03485775605015797</v>
       </c>
       <c r="C31">
-        <v>-0.02453133473214743</v>
+        <v>0.04398600181752949</v>
       </c>
       <c r="D31">
-        <v>0.003582131607436255</v>
+        <v>0.006931715949570735</v>
       </c>
       <c r="E31">
-        <v>-0.003227452567665583</v>
+        <v>-0.002640090869424737</v>
       </c>
       <c r="F31">
-        <v>0.03140102314385609</v>
+        <v>0.01426466678226758</v>
       </c>
       <c r="G31">
-        <v>0.04000908538231525</v>
+        <v>-0.03095936791151212</v>
       </c>
       <c r="H31">
-        <v>0.01698285081270409</v>
+        <v>0.05017432171844118</v>
       </c>
       <c r="I31">
-        <v>-0.003851660263682984</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.008145126550096938</v>
+      </c>
+      <c r="J31">
+        <v>0.01434360824032884</v>
+      </c>
+      <c r="K31">
+        <v>-0.03162751921504123</v>
+      </c>
+      <c r="L31">
+        <v>0.02001219587784562</v>
+      </c>
+      <c r="M31">
+        <v>-0.01493081096398057</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>-0.0213909557386854</v>
+        <v>0.04704388100173166</v>
       </c>
       <c r="C32">
-        <v>0.005786296948441167</v>
+        <v>-0.003437879716861931</v>
       </c>
       <c r="D32">
-        <v>-0.04479525921255576</v>
+        <v>-0.001072663403728702</v>
       </c>
       <c r="E32">
-        <v>0.07462853932840489</v>
+        <v>-0.004960458630609798</v>
       </c>
       <c r="F32">
-        <v>-0.01424159833598396</v>
+        <v>0.08638909901952871</v>
       </c>
       <c r="G32">
-        <v>0.04155109712591743</v>
+        <v>0.03436835867917964</v>
       </c>
       <c r="H32">
-        <v>0.03428567148190121</v>
+        <v>0.0458333016603199</v>
       </c>
       <c r="I32">
-        <v>0.09546248102843852</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.05633397342423337</v>
+      </c>
+      <c r="J32">
+        <v>0.03616287877173258</v>
+      </c>
+      <c r="K32">
+        <v>0.0007603845687410929</v>
+      </c>
+      <c r="L32">
+        <v>0.05933563953606252</v>
+      </c>
+      <c r="M32">
+        <v>0.1193450152700469</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>-0.1008528630957701</v>
+        <v>0.09620930237421306</v>
       </c>
       <c r="C33">
-        <v>-0.06102972810957934</v>
+        <v>0.06628994381886094</v>
       </c>
       <c r="D33">
-        <v>0.007341704887108656</v>
+        <v>-0.00839782831545533</v>
       </c>
       <c r="E33">
-        <v>0.002075341157799395</v>
+        <v>-0.01618774716901638</v>
       </c>
       <c r="F33">
-        <v>0.00272568650707865</v>
+        <v>0.06284283678357344</v>
       </c>
       <c r="G33">
-        <v>0.04781780474031724</v>
+        <v>-0.03126446165181426</v>
       </c>
       <c r="H33">
-        <v>0.02420474078046784</v>
+        <v>0.05927468617565908</v>
       </c>
       <c r="I33">
-        <v>0.02697978209330063</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>-0.02538041283078444</v>
+      </c>
+      <c r="J33">
+        <v>-0.04166455270582427</v>
+      </c>
+      <c r="K33">
+        <v>-0.01172056585307677</v>
+      </c>
+      <c r="L33">
+        <v>0.01336937313154036</v>
+      </c>
+      <c r="M33">
+        <v>-0.02988185802583323</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>-0.05157853295012356</v>
+        <v>0.06335937146277552</v>
       </c>
       <c r="C34">
-        <v>-0.08101147120585728</v>
+        <v>0.06337876923691779</v>
       </c>
       <c r="D34">
-        <v>0.02415105895951317</v>
+        <v>-0.02661935901696167</v>
       </c>
       <c r="E34">
-        <v>0.04155615371606833</v>
+        <v>0.01156570336995534</v>
       </c>
       <c r="F34">
-        <v>-0.01523117022024827</v>
+        <v>0.09609874295720684</v>
       </c>
       <c r="G34">
-        <v>0.01643730357755135</v>
+        <v>-0.01935577357599751</v>
       </c>
       <c r="H34">
-        <v>0.007847871981158975</v>
+        <v>0.05293532252856813</v>
       </c>
       <c r="I34">
-        <v>0.05650995785033663</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>-0.04071072895014556</v>
+      </c>
+      <c r="J34">
+        <v>0.04081313397446514</v>
+      </c>
+      <c r="K34">
+        <v>0.03802284842448125</v>
+      </c>
+      <c r="L34">
+        <v>-0.004947033570790064</v>
+      </c>
+      <c r="M34">
+        <v>-0.08767616679915465</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>-0.0362519146700243</v>
+        <v>0.02680764314392434</v>
       </c>
       <c r="C35">
-        <v>-0.02873111187661306</v>
+        <v>0.02331704175830724</v>
       </c>
       <c r="D35">
-        <v>0.008879110448658889</v>
+        <v>0.003005495411650412</v>
       </c>
       <c r="E35">
-        <v>0.02717516019543611</v>
+        <v>0.001861342074520963</v>
       </c>
       <c r="F35">
-        <v>0.009944349862618801</v>
+        <v>0.01487155049548193</v>
       </c>
       <c r="G35">
-        <v>0.03928776902286939</v>
+        <v>-0.02283223973225688</v>
       </c>
       <c r="H35">
-        <v>0.02544650856813946</v>
+        <v>0.0439963663930379</v>
       </c>
       <c r="I35">
-        <v>0.04105414101515757</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>-0.05019756166057029</v>
+      </c>
+      <c r="J35">
+        <v>-0.001730717817799693</v>
+      </c>
+      <c r="K35">
+        <v>0.02018821725701005</v>
+      </c>
+      <c r="L35">
+        <v>0.06011159293705549</v>
+      </c>
+      <c r="M35">
+        <v>-0.0005035928612265456</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>-0.0268974444298875</v>
+        <v>0.03026857308122995</v>
       </c>
       <c r="C36">
-        <v>-0.01531180715625091</v>
+        <v>0.0190946019252882</v>
       </c>
       <c r="D36">
-        <v>0.02952503641845536</v>
+        <v>0.01301637406283821</v>
       </c>
       <c r="E36">
-        <v>0.02276497203633607</v>
+        <v>0.01704202001144058</v>
       </c>
       <c r="F36">
-        <v>0.01044982970416028</v>
+        <v>0.05543038099633874</v>
       </c>
       <c r="G36">
-        <v>0.03091665710265432</v>
+        <v>-0.01447089415576921</v>
       </c>
       <c r="H36">
-        <v>-0.00845818022768058</v>
+        <v>0.04655929284077424</v>
       </c>
       <c r="I36">
-        <v>0.0007670757943214494</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>-0.03676572064148292</v>
+      </c>
+      <c r="J36">
+        <v>-0.03201959048188334</v>
+      </c>
+      <c r="K36">
+        <v>-0.0264988788940048</v>
+      </c>
+      <c r="L36">
+        <v>0.04004012401768275</v>
+      </c>
+      <c r="M36">
+        <v>-0.02677032311011145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1779,126 +2223,186 @@
       <c r="I37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>-0.04082183538358641</v>
+        <v>0.03201028508897057</v>
       </c>
       <c r="C38">
-        <v>-0.03146765694775309</v>
+        <v>0.04712717483777993</v>
       </c>
       <c r="D38">
-        <v>-0.02889436966646</v>
+        <v>0.02540544009235648</v>
       </c>
       <c r="E38">
-        <v>0.03770098285547296</v>
+        <v>-0.001482104674133208</v>
       </c>
       <c r="F38">
-        <v>-0.000417686524540795</v>
+        <v>-0.04298598854965017</v>
       </c>
       <c r="G38">
-        <v>0.005294723650733989</v>
+        <v>-0.04608364690037371</v>
       </c>
       <c r="H38">
-        <v>0.04100528910489287</v>
+        <v>-0.0468535194034181</v>
       </c>
       <c r="I38">
-        <v>0.03264406969983306</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.02343443671316306</v>
+      </c>
+      <c r="J38">
+        <v>-0.1071356754762843</v>
+      </c>
+      <c r="K38">
+        <v>0.0554282147950862</v>
+      </c>
+      <c r="L38">
+        <v>0.07127357621102862</v>
+      </c>
+      <c r="M38">
+        <v>0.08329782566389683</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>-0.09486860609819739</v>
+        <v>0.09682344797736239</v>
       </c>
       <c r="C39">
-        <v>-0.1050322518998422</v>
+        <v>0.08934718091963829</v>
       </c>
       <c r="D39">
-        <v>0.02119953724333901</v>
+        <v>-0.08057897542983737</v>
       </c>
       <c r="E39">
-        <v>0.02827648811602959</v>
+        <v>-0.01493242994031258</v>
       </c>
       <c r="F39">
-        <v>-0.03951791594157276</v>
+        <v>0.1472050545827282</v>
       </c>
       <c r="G39">
-        <v>-0.008397183673790706</v>
+        <v>-0.09085527294766189</v>
       </c>
       <c r="H39">
-        <v>0.02566126188013129</v>
+        <v>0.01433749377180043</v>
       </c>
       <c r="I39">
-        <v>0.1761433725366752</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>-0.1425907764556855</v>
+      </c>
+      <c r="J39">
+        <v>0.1529262471185342</v>
+      </c>
+      <c r="K39">
+        <v>0.1189806019258482</v>
+      </c>
+      <c r="L39">
+        <v>0.05368037799971635</v>
+      </c>
+      <c r="M39">
+        <v>0.01996357551254961</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>-0.05526242953063192</v>
+        <v>0.03775279584117509</v>
       </c>
       <c r="C40">
-        <v>-0.03616775755622401</v>
+        <v>0.05559262909976105</v>
       </c>
       <c r="D40">
-        <v>-0.03405285077465401</v>
+        <v>0.04935115177338234</v>
       </c>
       <c r="E40">
-        <v>0.1390789005265501</v>
+        <v>-0.0005394974118538726</v>
       </c>
       <c r="F40">
-        <v>-0.0084174734417204</v>
+        <v>0.125168318147794</v>
       </c>
       <c r="G40">
-        <v>0.0445213978243714</v>
+        <v>0.06228356162731008</v>
       </c>
       <c r="H40">
-        <v>0.02946456475035948</v>
+        <v>0.02099413945344318</v>
       </c>
       <c r="I40">
-        <v>0.1768020749282589</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>-0.01049106147075119</v>
+      </c>
+      <c r="J40">
+        <v>-0.09599242271404575</v>
+      </c>
+      <c r="K40">
+        <v>0.08964673351518025</v>
+      </c>
+      <c r="L40">
+        <v>0.1199496071525764</v>
+      </c>
+      <c r="M40">
+        <v>0.01710075029771636</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>-0.04354795363921022</v>
+        <v>0.03596310249622363</v>
       </c>
       <c r="C41">
-        <v>-0.05639685102805288</v>
+        <v>0.03704949973925541</v>
       </c>
       <c r="D41">
-        <v>0.009320937277724959</v>
+        <v>-0.01752263345838217</v>
       </c>
       <c r="E41">
-        <v>0.0009872560791374069</v>
+        <v>-0.003838934013364492</v>
       </c>
       <c r="F41">
-        <v>-0.004154239535584215</v>
+        <v>0.01692978711636315</v>
       </c>
       <c r="G41">
-        <v>0.02939508046831809</v>
+        <v>-0.02703427152576457</v>
       </c>
       <c r="H41">
-        <v>0.02177655415908573</v>
+        <v>0.005751100107507966</v>
       </c>
       <c r="I41">
-        <v>0.04830513599086625</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.01152609918990272</v>
+      </c>
+      <c r="J41">
+        <v>-0.01139397016282985</v>
+      </c>
+      <c r="K41">
+        <v>0.01029485591484109</v>
+      </c>
+      <c r="L41">
+        <v>0.04479387365487292</v>
+      </c>
+      <c r="M41">
+        <v>-0.02448933150213254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1924,68 +2428,104 @@
       <c r="I42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>-0.05384671209468855</v>
+        <v>0.05044109274947043</v>
       </c>
       <c r="C43">
-        <v>-0.0434851774313229</v>
+        <v>0.04756254649961674</v>
       </c>
       <c r="D43">
-        <v>0.02646303792351012</v>
+        <v>0.01322997120189596</v>
       </c>
       <c r="E43">
-        <v>0.01952620510837265</v>
+        <v>0.01335090376038878</v>
       </c>
       <c r="F43">
-        <v>0.01281434154333296</v>
+        <v>0.01554890649117289</v>
       </c>
       <c r="G43">
-        <v>0.01440883103397103</v>
+        <v>-0.0589377093875438</v>
       </c>
       <c r="H43">
-        <v>0.04600405308409774</v>
+        <v>4.758132618904493e-06</v>
       </c>
       <c r="I43">
-        <v>-0.007786117655584682</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>-0.003648734902257721</v>
+      </c>
+      <c r="J43">
+        <v>0.005340650716773916</v>
+      </c>
+      <c r="K43">
+        <v>0.004203719401283617</v>
+      </c>
+      <c r="L43">
+        <v>0.03231064316844333</v>
+      </c>
+      <c r="M43">
+        <v>-0.03074348529926545</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>-0.052161064764292</v>
+        <v>0.08095304257878071</v>
       </c>
       <c r="C44">
-        <v>-0.02716934187166599</v>
+        <v>0.06020420998768908</v>
       </c>
       <c r="D44">
-        <v>0.06181162293872816</v>
+        <v>0.06777615366672053</v>
       </c>
       <c r="E44">
-        <v>0.1240083714998745</v>
+        <v>0.09114311089596698</v>
       </c>
       <c r="F44">
-        <v>-0.03121518815688508</v>
+        <v>0.1599479370851582</v>
       </c>
       <c r="G44">
-        <v>0.01738315574612813</v>
+        <v>-0.007730772319841153</v>
       </c>
       <c r="H44">
-        <v>-0.03005924988967933</v>
+        <v>0.09176256615443511</v>
       </c>
       <c r="I44">
-        <v>0.1168591436521903</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>-0.05145977633536452</v>
+      </c>
+      <c r="J44">
+        <v>-0.01452268878413497</v>
+      </c>
+      <c r="K44">
+        <v>0.02283814289636693</v>
+      </c>
+      <c r="L44">
+        <v>0.06539963155204698</v>
+      </c>
+      <c r="M44">
+        <v>0.0356853100707772</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2011,329 +2551,473 @@
       <c r="I45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>-0.01884161133180795</v>
+        <v>0.03504469286266347</v>
       </c>
       <c r="C46">
-        <v>-0.03996951591734633</v>
+        <v>0.03881888462595771</v>
       </c>
       <c r="D46">
-        <v>0.01380580273107766</v>
+        <v>0.0476952589263786</v>
       </c>
       <c r="E46">
-        <v>0.04433324341968846</v>
+        <v>0.03667187081333744</v>
       </c>
       <c r="F46">
-        <v>0.002769855833956863</v>
+        <v>0.02019885487127654</v>
       </c>
       <c r="G46">
-        <v>-0.0003716298909491362</v>
+        <v>0.007816788495204561</v>
       </c>
       <c r="H46">
-        <v>0.001326205924329631</v>
+        <v>0.06178519685934861</v>
       </c>
       <c r="I46">
-        <v>0.02451232787589698</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.004405737027690501</v>
+      </c>
+      <c r="J46">
+        <v>-0.06694205872132659</v>
+      </c>
+      <c r="K46">
+        <v>-0.03932092155364151</v>
+      </c>
+      <c r="L46">
+        <v>0.05401311802746269</v>
+      </c>
+      <c r="M46">
+        <v>-0.001913148526315435</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>-0.02681713967373067</v>
+        <v>0.0451982829745945</v>
       </c>
       <c r="C47">
-        <v>-0.001546491484391295</v>
+        <v>0.02753086327453293</v>
       </c>
       <c r="D47">
-        <v>-0.009782650929805362</v>
+        <v>0.02181799010356007</v>
       </c>
       <c r="E47">
-        <v>0.06923781491499406</v>
+        <v>0.007976460036313044</v>
       </c>
       <c r="F47">
-        <v>0.002425339170241279</v>
+        <v>0.02931889721587492</v>
       </c>
       <c r="G47">
-        <v>0.03285930432475313</v>
+        <v>-0.02964383460632414</v>
       </c>
       <c r="H47">
-        <v>-0.01764682295454348</v>
+        <v>0.02561100977216973</v>
       </c>
       <c r="I47">
-        <v>-0.03313278003532591</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>-0.02950801213207066</v>
+      </c>
+      <c r="J47">
+        <v>-0.04602749750891949</v>
+      </c>
+      <c r="K47">
+        <v>-0.01648508204343684</v>
+      </c>
+      <c r="L47">
+        <v>0.01412514007980818</v>
+      </c>
+      <c r="M47">
+        <v>-0.04651046521796543</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>-0.03178795470699713</v>
+        <v>0.04344652472657451</v>
       </c>
       <c r="C48">
-        <v>-0.02345134159845562</v>
+        <v>0.01955284175200793</v>
       </c>
       <c r="D48">
-        <v>0.004596029393488614</v>
+        <v>0.01292130834760543</v>
       </c>
       <c r="E48">
-        <v>0.04624262249975784</v>
+        <v>0.003493393139882706</v>
       </c>
       <c r="F48">
-        <v>0.02322431572180382</v>
+        <v>0.05899382135143496</v>
       </c>
       <c r="G48">
-        <v>0.0381422332727698</v>
+        <v>0.0194075443912059</v>
       </c>
       <c r="H48">
-        <v>0.03206388414903372</v>
+        <v>0.05691670916706641</v>
       </c>
       <c r="I48">
-        <v>0.00696214584162554</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>-0.03543726657831666</v>
+      </c>
+      <c r="J48">
+        <v>-0.003457834568200228</v>
+      </c>
+      <c r="K48">
+        <v>-0.01067848091522756</v>
+      </c>
+      <c r="L48">
+        <v>0.0525617665869822</v>
+      </c>
+      <c r="M48">
+        <v>-0.03292299219079495</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>-0.1904456117371119</v>
+        <v>0.2233900175907939</v>
       </c>
       <c r="C49">
-        <v>-0.1323248643799796</v>
+        <v>0.0870271681740868</v>
       </c>
       <c r="D49">
-        <v>0.08484946110370188</v>
+        <v>-0.06467660944037547</v>
       </c>
       <c r="E49">
-        <v>-0.0736764694856137</v>
+        <v>0.02557664324811417</v>
       </c>
       <c r="F49">
-        <v>0.08530747955728366</v>
+        <v>-0.2300655634921608</v>
       </c>
       <c r="G49">
-        <v>-0.1739118567528359</v>
+        <v>0.1588934047201288</v>
       </c>
       <c r="H49">
-        <v>-0.04971584876658646</v>
+        <v>-0.05283323095994279</v>
       </c>
       <c r="I49">
-        <v>-0.01107043444693685</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>-0.08452311460374483</v>
+      </c>
+      <c r="J49">
+        <v>0.04043519993402164</v>
+      </c>
+      <c r="K49">
+        <v>0.2140429665756242</v>
+      </c>
+      <c r="L49">
+        <v>-0.123751714146724</v>
+      </c>
+      <c r="M49">
+        <v>-0.03532533946725629</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>-0.05340851067684466</v>
+        <v>0.04375789451301516</v>
       </c>
       <c r="C50">
-        <v>-0.03251341153294281</v>
+        <v>0.04237112114721801</v>
       </c>
       <c r="D50">
-        <v>0.006416505152080913</v>
+        <v>0.002585831181122137</v>
       </c>
       <c r="E50">
-        <v>0.0233271831836501</v>
+        <v>-0.007766008620177055</v>
       </c>
       <c r="F50">
-        <v>0.02017235193930792</v>
+        <v>0.03826863984598747</v>
       </c>
       <c r="G50">
-        <v>0.06837454808436121</v>
+        <v>-0.04017434854047097</v>
       </c>
       <c r="H50">
-        <v>-0.01659330577229348</v>
+        <v>0.04347276647669142</v>
       </c>
       <c r="I50">
-        <v>-0.0153863270583705</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>-0.01279598074512314</v>
+      </c>
+      <c r="J50">
+        <v>-0.0290325432517111</v>
+      </c>
+      <c r="K50">
+        <v>-0.05006821785976424</v>
+      </c>
+      <c r="L50">
+        <v>0.02181297917858585</v>
+      </c>
+      <c r="M50">
+        <v>0.03841565996019686</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>-0.02520226038163354</v>
+        <v>0.03062495953731957</v>
       </c>
       <c r="C51">
-        <v>-0.0135126696236501</v>
+        <v>0.005652989160193144</v>
       </c>
       <c r="D51">
-        <v>-0.008137091565547308</v>
+        <v>-0.0017862019496885</v>
       </c>
       <c r="E51">
-        <v>0.01417871959678001</v>
+        <v>0.01651171389381566</v>
       </c>
       <c r="F51">
-        <v>-0.01252756189679166</v>
+        <v>-0.01741765282399107</v>
       </c>
       <c r="G51">
-        <v>-0.02475105775295239</v>
+        <v>-0.00182072966393607</v>
       </c>
       <c r="H51">
-        <v>-0.01279445164710736</v>
+        <v>-0.02417078791442359</v>
       </c>
       <c r="I51">
-        <v>0.02764578893686946</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>-0.0119386276232412</v>
+      </c>
+      <c r="J51">
+        <v>0.05402297537878769</v>
+      </c>
+      <c r="K51">
+        <v>0.05257810345999996</v>
+      </c>
+      <c r="L51">
+        <v>-0.05038741723355122</v>
+      </c>
+      <c r="M51">
+        <v>-0.01489508384844718</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.009930136069581423</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.003006034353205218</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.01475549014375437</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.001823567093038953</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.004842210757369446</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>3.78578178660528e-05</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>-0.0007664720583137935</v>
       </c>
       <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>-0.001920315490148639</v>
+      </c>
+      <c r="J52">
+        <v>0.0250556232852206</v>
+      </c>
+      <c r="K52">
+        <v>-0.01419250843964466</v>
+      </c>
+      <c r="L52">
+        <v>0.005856845366556084</v>
+      </c>
+      <c r="M52">
+        <v>0.0180964394220808</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>-0.1670431536821342</v>
+        <v>0.154360316436892</v>
       </c>
       <c r="C53">
-        <v>-0.01826798968149545</v>
+        <v>0.04646440373589759</v>
       </c>
       <c r="D53">
-        <v>0.03428221444566711</v>
+        <v>-0.01653670218131429</v>
       </c>
       <c r="E53">
-        <v>-0.06368060159018141</v>
+        <v>-0.005088669391511852</v>
       </c>
       <c r="F53">
-        <v>-0.1437602347546431</v>
+        <v>-0.0723489722067082</v>
       </c>
       <c r="G53">
-        <v>0.2252411110684458</v>
+        <v>-0.2096425442747723</v>
       </c>
       <c r="H53">
-        <v>0.02479414398389135</v>
+        <v>0.03826141584467587</v>
       </c>
       <c r="I53">
-        <v>-0.05119532849114559</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.1206266338150982</v>
+      </c>
+      <c r="J53">
+        <v>-0.04685812557291646</v>
+      </c>
+      <c r="K53">
+        <v>-0.05575396140748135</v>
+      </c>
+      <c r="L53">
+        <v>-0.07120874967909704</v>
+      </c>
+      <c r="M53">
+        <v>0.1038340783301216</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>-0.04979850168943178</v>
+        <v>0.05814096214221715</v>
       </c>
       <c r="C54">
-        <v>-0.03492518580003094</v>
+        <v>0.0329414004222264</v>
       </c>
       <c r="D54">
-        <v>0.032687287867414</v>
+        <v>0.02203103851787146</v>
       </c>
       <c r="E54">
-        <v>0.03068309486830769</v>
+        <v>0.02677694726768406</v>
       </c>
       <c r="F54">
-        <v>0.008996232825176503</v>
+        <v>0.1020582556306374</v>
       </c>
       <c r="G54">
-        <v>0.0212235888690225</v>
+        <v>0.019692871152644</v>
       </c>
       <c r="H54">
-        <v>0.01953484902953636</v>
+        <v>0.06853297171616493</v>
       </c>
       <c r="I54">
-        <v>0.007878819142266487</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.001161251548092545</v>
+      </c>
+      <c r="J54">
+        <v>-0.04459385372334737</v>
+      </c>
+      <c r="K54">
+        <v>-0.1074377210565204</v>
+      </c>
+      <c r="L54">
+        <v>0.08906163476645101</v>
+      </c>
+      <c r="M54">
+        <v>-0.03035114640251428</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>-0.09144294458134844</v>
+        <v>0.08617430527042567</v>
       </c>
       <c r="C55">
-        <v>-0.005217463012334452</v>
+        <v>0.03661132873919516</v>
       </c>
       <c r="D55">
-        <v>0.02924754583987284</v>
+        <v>-0.02541892755866678</v>
       </c>
       <c r="E55">
-        <v>-0.00349485387269702</v>
+        <v>0.007803103644514334</v>
       </c>
       <c r="F55">
-        <v>-0.1078654261520811</v>
+        <v>0.004003913904696624</v>
       </c>
       <c r="G55">
-        <v>0.204685861144407</v>
+        <v>-0.1500237364709438</v>
       </c>
       <c r="H55">
-        <v>-0.004854129707090718</v>
+        <v>0.05089694035889487</v>
       </c>
       <c r="I55">
-        <v>-0.03941443408970124</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.07094598626653803</v>
+      </c>
+      <c r="J55">
+        <v>-0.03182430799468315</v>
+      </c>
+      <c r="K55">
+        <v>-0.03343747934292232</v>
+      </c>
+      <c r="L55">
+        <v>-0.05084911112779238</v>
+      </c>
+      <c r="M55">
+        <v>0.0552180284151896</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>-0.167727311789738</v>
+        <v>0.1483388022397845</v>
       </c>
       <c r="C56">
-        <v>-0.0164172328876046</v>
+        <v>0.06898417872294331</v>
       </c>
       <c r="D56">
-        <v>0.05684162679453988</v>
+        <v>-0.02947459353120097</v>
       </c>
       <c r="E56">
-        <v>-0.05522640496312225</v>
+        <v>0.01037035929606099</v>
       </c>
       <c r="F56">
-        <v>-0.1208220950199372</v>
+        <v>-0.03457533734746582</v>
       </c>
       <c r="G56">
-        <v>0.2083046785109818</v>
+        <v>-0.2195439519368876</v>
       </c>
       <c r="H56">
-        <v>0.0422013179918266</v>
+        <v>0.01470529935168437</v>
       </c>
       <c r="I56">
-        <v>-0.0754614452758902</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.1382535668811013</v>
+      </c>
+      <c r="J56">
+        <v>-0.05233639009356222</v>
+      </c>
+      <c r="K56">
+        <v>-0.04512434808002586</v>
+      </c>
+      <c r="L56">
+        <v>-0.04846452646422753</v>
+      </c>
+      <c r="M56">
+        <v>0.06964908225870879</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2359,1112 +3043,1580 @@
       <c r="I57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>-0.03816561575011034</v>
+        <v>0.03872886314749716</v>
       </c>
       <c r="C58">
-        <v>-0.04178647170356202</v>
+        <v>0.03061039542299212</v>
       </c>
       <c r="D58">
-        <v>0.008002253900652781</v>
+        <v>0.0851290825362743</v>
       </c>
       <c r="E58">
-        <v>0.3279864033996068</v>
+        <v>0.03360782833443836</v>
       </c>
       <c r="F58">
-        <v>0.2107102338771271</v>
+        <v>0.03367466300516497</v>
       </c>
       <c r="G58">
-        <v>-0.04783915279280505</v>
+        <v>0.04873914204865827</v>
       </c>
       <c r="H58">
-        <v>-0.1038487509109433</v>
+        <v>0.0618257756536859</v>
       </c>
       <c r="I58">
-        <v>-0.05633188258125949</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>-0.2950104930829899</v>
+      </c>
+      <c r="J58">
+        <v>0.2316773993777844</v>
+      </c>
+      <c r="K58">
+        <v>-0.04726038763365608</v>
+      </c>
+      <c r="L58">
+        <v>0.002732312918017553</v>
+      </c>
+      <c r="M58">
+        <v>-0.321559572043262</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>-0.2515718301499655</v>
+        <v>0.2288397168810447</v>
       </c>
       <c r="C59">
-        <v>0.4091261455472794</v>
+        <v>-0.3019365363725575</v>
       </c>
       <c r="D59">
-        <v>0.02244323427925207</v>
+        <v>-0.04059283928772892</v>
       </c>
       <c r="E59">
-        <v>0.02609777880038263</v>
+        <v>0.005640087945831097</v>
       </c>
       <c r="F59">
-        <v>-0.07585988050208549</v>
+        <v>0.02676123164729235</v>
       </c>
       <c r="G59">
-        <v>-0.01032566695313594</v>
+        <v>-0.05639768344588972</v>
       </c>
       <c r="H59">
-        <v>0.05325133332543378</v>
+        <v>-0.02123626326013548</v>
       </c>
       <c r="I59">
-        <v>0.04628649431100895</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.1181323470970364</v>
+      </c>
+      <c r="J59">
+        <v>0.0698169830859265</v>
+      </c>
+      <c r="K59">
+        <v>0.03181840882409455</v>
+      </c>
+      <c r="L59">
+        <v>-0.02442010267717676</v>
+      </c>
+      <c r="M59">
+        <v>-0.00931153085061661</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>-0.2486433002873337</v>
+        <v>0.2424278799967826</v>
       </c>
       <c r="C60">
-        <v>-0.07822077655675014</v>
+        <v>0.1184237913118928</v>
       </c>
       <c r="D60">
-        <v>0.08762288058238667</v>
+        <v>-0.06621128668467662</v>
       </c>
       <c r="E60">
-        <v>0.02860094541958039</v>
+        <v>0.03769112009559094</v>
       </c>
       <c r="F60">
-        <v>0.001846903195887362</v>
+        <v>-0.1068771806684081</v>
       </c>
       <c r="G60">
-        <v>-0.08123986364427339</v>
+        <v>0.03421996733413637</v>
       </c>
       <c r="H60">
-        <v>-0.05823621284728581</v>
+        <v>-0.1212699875517165</v>
       </c>
       <c r="I60">
-        <v>-0.1033622247702151</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.007178308027950103</v>
+      </c>
+      <c r="J60">
+        <v>0.001012300823408817</v>
+      </c>
+      <c r="K60">
+        <v>-0.01091984723286628</v>
+      </c>
+      <c r="L60">
+        <v>-0.2000430213675797</v>
+      </c>
+      <c r="M60">
+        <v>0.01806537454773408</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>-0.08155972347950508</v>
+        <v>0.0911107764436203</v>
       </c>
       <c r="C61">
-        <v>-0.05936760102383034</v>
+        <v>0.06458274050118377</v>
       </c>
       <c r="D61">
-        <v>0.02505744160440944</v>
+        <v>-0.04311488890923571</v>
       </c>
       <c r="E61">
-        <v>0.003538067656245323</v>
+        <v>0.01442122021123665</v>
       </c>
       <c r="F61">
-        <v>-0.00196213926575657</v>
+        <v>0.1119960591453009</v>
       </c>
       <c r="G61">
-        <v>0.01607325117908441</v>
+        <v>-0.07662960520696883</v>
       </c>
       <c r="H61">
-        <v>0.01379096879803394</v>
+        <v>0.03397564419144335</v>
       </c>
       <c r="I61">
-        <v>0.09135187059062851</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>-0.05952677032842443</v>
+      </c>
+      <c r="J61">
+        <v>0.05441279824381134</v>
+      </c>
+      <c r="K61">
+        <v>0.04653973874787973</v>
+      </c>
+      <c r="L61">
+        <v>0.05441519481349045</v>
+      </c>
+      <c r="M61">
+        <v>0.008805757413970378</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>-0.1670964541364281</v>
+        <v>0.1458643826706599</v>
       </c>
       <c r="C62">
-        <v>-0.05798131313165882</v>
+        <v>0.07724576714889367</v>
       </c>
       <c r="D62">
-        <v>0.03163133598209153</v>
+        <v>-0.03113431361480217</v>
       </c>
       <c r="E62">
-        <v>-0.1039801005671859</v>
+        <v>-0.02312843128132034</v>
       </c>
       <c r="F62">
-        <v>-0.1617800486473372</v>
+        <v>-0.02383559197042891</v>
       </c>
       <c r="G62">
-        <v>0.1967029931134551</v>
+        <v>-0.1612842972928353</v>
       </c>
       <c r="H62">
-        <v>0.05082285867350977</v>
+        <v>0.05691168531305003</v>
       </c>
       <c r="I62">
-        <v>0.006398670652163833</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.1296013524498549</v>
+      </c>
+      <c r="J62">
+        <v>-0.1331181093357022</v>
+      </c>
+      <c r="K62">
+        <v>-0.05061095033554741</v>
+      </c>
+      <c r="L62">
+        <v>-0.06190658261197389</v>
+      </c>
+      <c r="M62">
+        <v>0.0749899473255568</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>-0.04331693377303916</v>
+        <v>0.04477357918528855</v>
       </c>
       <c r="C63">
-        <v>-0.04027852876856668</v>
+        <v>0.02695980237320111</v>
       </c>
       <c r="D63">
-        <v>0.02204908343399808</v>
+        <v>-0.005539305348547544</v>
       </c>
       <c r="E63">
-        <v>0.0127802968228672</v>
+        <v>-0.008502585161519074</v>
       </c>
       <c r="F63">
-        <v>0.0007537563801363554</v>
+        <v>0.05851699253672359</v>
       </c>
       <c r="G63">
-        <v>0.04495164808778403</v>
+        <v>-0.01244498002932449</v>
       </c>
       <c r="H63">
-        <v>-0.04825540359994093</v>
+        <v>0.03842837563562732</v>
       </c>
       <c r="I63">
-        <v>0.004125262802328901</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>-0.05094094270190207</v>
+      </c>
+      <c r="J63">
+        <v>-0.01585997359252378</v>
+      </c>
+      <c r="K63">
+        <v>-0.03859291285869439</v>
+      </c>
+      <c r="L63">
+        <v>0.01575419383142623</v>
+      </c>
+      <c r="M63">
+        <v>0.002983421662694912</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>-0.1013989807838244</v>
+        <v>0.1013138843075987</v>
       </c>
       <c r="C64">
-        <v>-0.03651239431641413</v>
+        <v>0.04932374580240581</v>
       </c>
       <c r="D64">
-        <v>0.03705545750730478</v>
+        <v>0.002178810381086751</v>
       </c>
       <c r="E64">
-        <v>0.0385688511368401</v>
+        <v>0.03631390324897321</v>
       </c>
       <c r="F64">
-        <v>0.02264614732060168</v>
+        <v>0.05485545392636555</v>
       </c>
       <c r="G64">
-        <v>-0.006207434481395815</v>
+        <v>-0.0114059192948307</v>
       </c>
       <c r="H64">
-        <v>-0.01601967345475085</v>
+        <v>-0.003449446451869774</v>
       </c>
       <c r="I64">
-        <v>0.09328488764212534</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>-0.08202750819971388</v>
+      </c>
+      <c r="J64">
+        <v>0.003319391248498974</v>
+      </c>
+      <c r="K64">
+        <v>0.008674972154471404</v>
+      </c>
+      <c r="L64">
+        <v>0.04646633196432741</v>
+      </c>
+      <c r="M64">
+        <v>0.04450372740125491</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>-0.1271992591895322</v>
+        <v>0.1266904976749642</v>
       </c>
       <c r="C65">
-        <v>-0.05979002506561272</v>
+        <v>0.04666678782349792</v>
       </c>
       <c r="D65">
-        <v>0.05039039053504266</v>
+        <v>-0.008905368889897895</v>
       </c>
       <c r="E65">
-        <v>0.1309918960531659</v>
+        <v>0.01145580071746152</v>
       </c>
       <c r="F65">
-        <v>0.1391618390637544</v>
+        <v>0.04521450239020482</v>
       </c>
       <c r="G65">
-        <v>-0.06470717963528005</v>
+        <v>0.1654121243370208</v>
       </c>
       <c r="H65">
-        <v>-0.3836857810431153</v>
+        <v>-0.08068110262249946</v>
       </c>
       <c r="I65">
-        <v>-0.5184300577747276</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>-0.2058822587332761</v>
+      </c>
+      <c r="J65">
+        <v>-0.2427907175377213</v>
+      </c>
+      <c r="K65">
+        <v>-0.5302661567646531</v>
+      </c>
+      <c r="L65">
+        <v>-0.3102008016185472</v>
+      </c>
+      <c r="M65">
+        <v>-0.0307348849067372</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>-0.1558963912036872</v>
+        <v>0.1253432573851759</v>
       </c>
       <c r="C66">
-        <v>-0.1546153832769897</v>
+        <v>0.1323715673774511</v>
       </c>
       <c r="D66">
-        <v>0.05197870209982105</v>
+        <v>-0.1040854495751687</v>
       </c>
       <c r="E66">
-        <v>-0.01441812741832771</v>
+        <v>-0.0246456187435413</v>
       </c>
       <c r="F66">
-        <v>-0.07726426955511355</v>
+        <v>0.1623152687203286</v>
       </c>
       <c r="G66">
-        <v>-0.0213479390520691</v>
+        <v>-0.0938148652529503</v>
       </c>
       <c r="H66">
-        <v>0.04315802125092962</v>
+        <v>0.02826450971536462</v>
       </c>
       <c r="I66">
-        <v>0.3615899066531915</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>-0.1214142569597856</v>
+      </c>
+      <c r="J66">
+        <v>0.1382442461952552</v>
+      </c>
+      <c r="K66">
+        <v>0.1960691336328659</v>
+      </c>
+      <c r="L66">
+        <v>0.06718161237815615</v>
+      </c>
+      <c r="M66">
+        <v>0.05717755664182531</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>-0.07494942237879929</v>
+        <v>0.08030514771163778</v>
       </c>
       <c r="C67">
-        <v>-0.04915837284657212</v>
+        <v>0.06149028109058323</v>
       </c>
       <c r="D67">
-        <v>0.01130436220458097</v>
+        <v>0.01576085264152422</v>
       </c>
       <c r="E67">
-        <v>0.005992184513513514</v>
+        <v>0.0206857562863815</v>
       </c>
       <c r="F67">
-        <v>-0.003641733702643925</v>
+        <v>-0.03069285149818275</v>
       </c>
       <c r="G67">
-        <v>-0.01106876548950904</v>
+        <v>-0.08355601976428097</v>
       </c>
       <c r="H67">
-        <v>0.04807711692190914</v>
+        <v>-0.08332045778036504</v>
       </c>
       <c r="I67">
-        <v>0.03949230975880923</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.03894588519085122</v>
+      </c>
+      <c r="J67">
+        <v>-0.07524764880446685</v>
+      </c>
+      <c r="K67">
+        <v>0.09556185134694416</v>
+      </c>
+      <c r="L67">
+        <v>0.04726358588768644</v>
+      </c>
+      <c r="M67">
+        <v>0.05166395846470331</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>-0.1078962480937313</v>
+        <v>0.1230534579213736</v>
       </c>
       <c r="C68">
-        <v>0.2679597253383399</v>
+        <v>-0.2735711513518949</v>
       </c>
       <c r="D68">
-        <v>-0.005915764353017128</v>
+        <v>-0.007221097990133439</v>
       </c>
       <c r="E68">
-        <v>0.0131534590374416</v>
+        <v>0.001709103314444078</v>
       </c>
       <c r="F68">
-        <v>0.01005075568089392</v>
+        <v>0.02064060384976436</v>
       </c>
       <c r="G68">
-        <v>0.04252129283972968</v>
+        <v>-0.03089849461527071</v>
       </c>
       <c r="H68">
-        <v>-0.002657172317376715</v>
+        <v>0.01643408041033234</v>
       </c>
       <c r="I68">
-        <v>-0.01820472481247171</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>-0.04341346480211545</v>
+      </c>
+      <c r="J68">
+        <v>-0.01947534260692952</v>
+      </c>
+      <c r="K68">
+        <v>-0.06017390632844202</v>
+      </c>
+      <c r="L68">
+        <v>0.002804428266889287</v>
+      </c>
+      <c r="M68">
+        <v>0.02352923505704354</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>-0.04088338165656757</v>
+        <v>0.04310869978078904</v>
       </c>
       <c r="C69">
-        <v>-0.02972907759002402</v>
+        <v>0.02242156957649203</v>
       </c>
       <c r="D69">
-        <v>0.007523485202986676</v>
+        <v>0.01145374365313852</v>
       </c>
       <c r="E69">
-        <v>0.01612362439697505</v>
+        <v>-0.004240043420047433</v>
       </c>
       <c r="F69">
-        <v>-0.0496806651842932</v>
+        <v>0.01279818077827071</v>
       </c>
       <c r="G69">
-        <v>0.01115730014348633</v>
+        <v>-0.04154989620822248</v>
       </c>
       <c r="H69">
-        <v>0.01543457353236748</v>
+        <v>-0.007942674257791119</v>
       </c>
       <c r="I69">
-        <v>-0.0268005551492443</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.00448511686888002</v>
+      </c>
+      <c r="J69">
+        <v>-0.03044079606377798</v>
+      </c>
+      <c r="K69">
+        <v>0.0163237790944947</v>
+      </c>
+      <c r="L69">
+        <v>-0.004391286760774334</v>
+      </c>
+      <c r="M69">
+        <v>-0.06060188700258724</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>-0.0436494001167386</v>
+        <v>0.05296556164435087</v>
       </c>
       <c r="C70">
-        <v>-0.005362824148227086</v>
+        <v>0.0363767769656113</v>
       </c>
       <c r="D70">
-        <v>0.02306989613541932</v>
+        <v>-0.02253345550416252</v>
       </c>
       <c r="E70">
-        <v>-0.0362803329264494</v>
+        <v>0.01107563569186132</v>
       </c>
       <c r="F70">
-        <v>0.06212297849471107</v>
+        <v>3.034847235284234e-05</v>
       </c>
       <c r="G70">
-        <v>-0.1111779359123566</v>
+        <v>0.07352566042975459</v>
       </c>
       <c r="H70">
-        <v>0.04565852025708752</v>
+        <v>-0.02119318172923083</v>
       </c>
       <c r="I70">
-        <v>-0.0272128194291785</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.0729915082165946</v>
+      </c>
+      <c r="J70">
+        <v>-0.1671311809899255</v>
+      </c>
+      <c r="K70">
+        <v>-0.03915776920190786</v>
+      </c>
+      <c r="L70">
+        <v>0.2627063380347707</v>
+      </c>
+      <c r="M70">
+        <v>-0.1889195254411534</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>-0.1104726585295687</v>
+        <v>0.1361989635677703</v>
       </c>
       <c r="C71">
-        <v>0.2768854461986545</v>
+        <v>-0.2811455532901408</v>
       </c>
       <c r="D71">
-        <v>0.02176334839114757</v>
+        <v>-0.01037402538124219</v>
       </c>
       <c r="E71">
-        <v>0.001429172444969569</v>
+        <v>0.01964170311575983</v>
       </c>
       <c r="F71">
-        <v>0.02368497870669702</v>
+        <v>0.02580977735506596</v>
       </c>
       <c r="G71">
-        <v>0.0178104102320253</v>
+        <v>-0.03257628333329765</v>
       </c>
       <c r="H71">
-        <v>-0.0005334440488126416</v>
+        <v>0.01187496165578373</v>
       </c>
       <c r="I71">
-        <v>0.009396095924967846</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>-0.04412495398070394</v>
+      </c>
+      <c r="J71">
+        <v>-0.01115864012666938</v>
+      </c>
+      <c r="K71">
+        <v>-0.007706216053239554</v>
+      </c>
+      <c r="L71">
+        <v>-0.0006179172994660741</v>
+      </c>
+      <c r="M71">
+        <v>0.01394672199481854</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>-0.1824342617666691</v>
+        <v>0.1440302244179407</v>
       </c>
       <c r="C72">
-        <v>-0.05053381517848918</v>
+        <v>0.03539705402664355</v>
       </c>
       <c r="D72">
-        <v>-0.2195776857572399</v>
+        <v>0.002028658510736486</v>
       </c>
       <c r="E72">
-        <v>-0.03711460322712537</v>
+        <v>-0.1817039127927747</v>
       </c>
       <c r="F72">
-        <v>-0.054588586931218</v>
+        <v>0.05448157178646218</v>
       </c>
       <c r="G72">
-        <v>-0.02411086664602696</v>
+        <v>-0.01242188766915826</v>
       </c>
       <c r="H72">
-        <v>-0.1124664965241946</v>
+        <v>-0.05185110197507502</v>
       </c>
       <c r="I72">
-        <v>-0.04780575619985715</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.01785668887444198</v>
+      </c>
+      <c r="J72">
+        <v>-0.07196324120594344</v>
+      </c>
+      <c r="K72">
+        <v>-0.09602487455403826</v>
+      </c>
+      <c r="L72">
+        <v>-0.1262210172517113</v>
+      </c>
+      <c r="M72">
+        <v>0.01526450725254477</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>-0.263591642581497</v>
+        <v>0.2357384534160468</v>
       </c>
       <c r="C73">
-        <v>-0.1873065194104075</v>
+        <v>0.1581479955470002</v>
       </c>
       <c r="D73">
-        <v>0.1476113553333785</v>
+        <v>-0.1521406898315759</v>
       </c>
       <c r="E73">
-        <v>-0.03410294452791906</v>
+        <v>0.08991402474820963</v>
       </c>
       <c r="F73">
-        <v>0.1739656938209904</v>
+        <v>-0.3868902586863063</v>
       </c>
       <c r="G73">
-        <v>-0.07807624296419248</v>
+        <v>0.1174699238120461</v>
       </c>
       <c r="H73">
-        <v>-0.2359173486756047</v>
+        <v>-0.203300354976882</v>
       </c>
       <c r="I73">
-        <v>-0.06701265360528301</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>-0.3107320426076625</v>
+      </c>
+      <c r="J73">
+        <v>0.09272104713375939</v>
+      </c>
+      <c r="K73">
+        <v>0.2949544500083775</v>
+      </c>
+      <c r="L73">
+        <v>-0.2499914164419677</v>
+      </c>
+      <c r="M73">
+        <v>0.139934585415044</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>-0.09175656481296186</v>
+        <v>0.08969013002105074</v>
       </c>
       <c r="C74">
-        <v>-0.03092939272630564</v>
+        <v>0.06886335687884435</v>
       </c>
       <c r="D74">
-        <v>0.02509234642410758</v>
+        <v>-0.009297955839915098</v>
       </c>
       <c r="E74">
-        <v>-0.0159129339781394</v>
+        <v>-0.005804880897985915</v>
       </c>
       <c r="F74">
-        <v>-0.03098746428506634</v>
+        <v>-0.0326280185305996</v>
       </c>
       <c r="G74">
-        <v>0.1722167729449996</v>
+        <v>-0.1507169258560727</v>
       </c>
       <c r="H74">
-        <v>-0.02922572439310757</v>
+        <v>0.03104610685139603</v>
       </c>
       <c r="I74">
-        <v>-0.03264417733324713</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.0004963464208193516</v>
+      </c>
+      <c r="J74">
+        <v>-0.03938552858402414</v>
+      </c>
+      <c r="K74">
+        <v>-0.0001275558147559124</v>
+      </c>
+      <c r="L74">
+        <v>-0.04432444225602809</v>
+      </c>
+      <c r="M74">
+        <v>0.04431693548588549</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>-0.09933718983421151</v>
+        <v>0.09153952891120012</v>
       </c>
       <c r="C75">
-        <v>-0.01803222186458109</v>
+        <v>0.04949156850512457</v>
       </c>
       <c r="D75">
-        <v>0.02702068970392756</v>
+        <v>-0.008478693942896067</v>
       </c>
       <c r="E75">
-        <v>-0.02639451527519609</v>
+        <v>-0.008274132982544053</v>
       </c>
       <c r="F75">
-        <v>-0.07897437140873023</v>
+        <v>-0.02373815361841108</v>
       </c>
       <c r="G75">
-        <v>0.07517184023623467</v>
+        <v>-0.1066025429204484</v>
       </c>
       <c r="H75">
-        <v>0.05823705893554286</v>
+        <v>0.01252510095333707</v>
       </c>
       <c r="I75">
-        <v>-0.1026188941418728</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.1001242746485797</v>
+      </c>
+      <c r="J75">
+        <v>-0.01214967797058141</v>
+      </c>
+      <c r="K75">
+        <v>-0.01692518017488751</v>
+      </c>
+      <c r="L75">
+        <v>-0.01987670807384486</v>
+      </c>
+      <c r="M75">
+        <v>-0.05761545008968176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>-0.1281181957017168</v>
+        <v>0.09737172412228691</v>
       </c>
       <c r="C76">
-        <v>-0.03795744801447201</v>
+        <v>0.06968887250382469</v>
       </c>
       <c r="D76">
-        <v>0.02478612268379772</v>
+        <v>-0.005393242169520179</v>
       </c>
       <c r="E76">
-        <v>-0.004228454796495535</v>
+        <v>0.0119111923393676</v>
       </c>
       <c r="F76">
-        <v>-0.1310225280858015</v>
+        <v>-0.05629074541999037</v>
       </c>
       <c r="G76">
-        <v>0.2123088275933911</v>
+        <v>-0.1964140546700791</v>
       </c>
       <c r="H76">
-        <v>0.02378638856461993</v>
+        <v>0.03729437090145867</v>
       </c>
       <c r="I76">
-        <v>-0.1100140091742256</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.1100933445103437</v>
+      </c>
+      <c r="J76">
+        <v>-0.03545529142265472</v>
+      </c>
+      <c r="K76">
+        <v>-0.04186015580810276</v>
+      </c>
+      <c r="L76">
+        <v>-0.04025686123784373</v>
+      </c>
+      <c r="M76">
+        <v>0.1239590739110042</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>-0.08040040022794984</v>
+        <v>0.07310197260934992</v>
       </c>
       <c r="C77">
-        <v>-0.03892496663950677</v>
+        <v>0.02220947738291178</v>
       </c>
       <c r="D77">
-        <v>-0.03444634448699736</v>
+        <v>-0.005110983728611747</v>
       </c>
       <c r="E77">
-        <v>0.2959298273257794</v>
+        <v>0.03673959059109335</v>
       </c>
       <c r="F77">
-        <v>-0.6375457144391006</v>
+        <v>0.4954896925619245</v>
       </c>
       <c r="G77">
-        <v>-0.486930862231608</v>
+        <v>0.1589509309129447</v>
       </c>
       <c r="H77">
-        <v>-0.143750643012077</v>
+        <v>-0.664527417376485</v>
       </c>
       <c r="I77">
-        <v>0.08093383966351715</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.2334621141915269</v>
+      </c>
+      <c r="J77">
+        <v>-0.07070711050106174</v>
+      </c>
+      <c r="K77">
+        <v>0.1485253357314687</v>
+      </c>
+      <c r="L77">
+        <v>-0.05264709163818045</v>
+      </c>
+      <c r="M77">
+        <v>0.1514559609467348</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>-0.1328916983087689</v>
+        <v>0.1716029242732522</v>
       </c>
       <c r="C78">
-        <v>-0.09112225728321806</v>
+        <v>0.1204659731425887</v>
       </c>
       <c r="D78">
-        <v>0.0221512761749515</v>
+        <v>0.1739384653927196</v>
       </c>
       <c r="E78">
-        <v>0.1491010482328328</v>
+        <v>0.1115475359898201</v>
       </c>
       <c r="F78">
-        <v>0.06430237081536806</v>
+        <v>0.1189911392870633</v>
       </c>
       <c r="G78">
-        <v>-0.01166189370263067</v>
+        <v>0.2901699083983764</v>
       </c>
       <c r="H78">
-        <v>0.04789373231354237</v>
+        <v>0.2211304778408505</v>
       </c>
       <c r="I78">
-        <v>0.08978554260779893</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.3803901503610113</v>
+      </c>
+      <c r="J78">
+        <v>0.6269803193509467</v>
+      </c>
+      <c r="K78">
+        <v>-0.1726576938790885</v>
+      </c>
+      <c r="L78">
+        <v>-0.1927703988075778</v>
+      </c>
+      <c r="M78">
+        <v>0.08094009782091516</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>-0.1414203983893424</v>
+        <v>0.1350986138675006</v>
       </c>
       <c r="C79">
-        <v>-0.05265913928337508</v>
+        <v>0.0733898378167995</v>
       </c>
       <c r="D79">
-        <v>0.03661404022763105</v>
+        <v>-0.002925429177418541</v>
       </c>
       <c r="E79">
-        <v>-0.04337864500547666</v>
+        <v>0.005286953283492745</v>
       </c>
       <c r="F79">
-        <v>-0.09740432709916223</v>
+        <v>-0.004275167968269108</v>
       </c>
       <c r="G79">
-        <v>0.1323051381914797</v>
+        <v>-0.1592256989613364</v>
       </c>
       <c r="H79">
-        <v>0.06555480289345852</v>
+        <v>0.02696029725625834</v>
       </c>
       <c r="I79">
-        <v>-0.06054040476504491</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.09065505348607139</v>
+      </c>
+      <c r="J79">
+        <v>-0.0801917558908793</v>
+      </c>
+      <c r="K79">
+        <v>-0.02824758317677888</v>
+      </c>
+      <c r="L79">
+        <v>-0.04467600774186291</v>
+      </c>
+      <c r="M79">
+        <v>0.02063551352693085</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>-0.02665180420733445</v>
+        <v>0.05639510917408763</v>
       </c>
       <c r="C80">
-        <v>0.001067966438789476</v>
+        <v>0.02260880715118937</v>
       </c>
       <c r="D80">
-        <v>0.005029307018000338</v>
+        <v>-0.06592434102654511</v>
       </c>
       <c r="E80">
-        <v>-0.03046615619682595</v>
+        <v>0.006580048577742304</v>
       </c>
       <c r="F80">
-        <v>0.01254501505180159</v>
+        <v>-0.005241925870740642</v>
       </c>
       <c r="G80">
-        <v>-0.004419247751005459</v>
+        <v>0.0301462979928727</v>
       </c>
       <c r="H80">
-        <v>-0.08322489715222899</v>
+        <v>0.08282137075652371</v>
       </c>
       <c r="I80">
-        <v>-0.007318397447921011</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>-0.1109465431505963</v>
+      </c>
+      <c r="J80">
+        <v>0.0170518509923659</v>
+      </c>
+      <c r="K80">
+        <v>-0.04601498056161918</v>
+      </c>
+      <c r="L80">
+        <v>0.07417335286085962</v>
+      </c>
+      <c r="M80">
+        <v>0.02025449386573305</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>-0.1143432870076693</v>
+        <v>0.1185746364587239</v>
       </c>
       <c r="C81">
-        <v>-0.05243831163463494</v>
+        <v>0.05151973787983995</v>
       </c>
       <c r="D81">
-        <v>0.04443696892022917</v>
+        <v>-0.001327645779404734</v>
       </c>
       <c r="E81">
-        <v>-0.02991123892993156</v>
+        <v>0.009536642543164938</v>
       </c>
       <c r="F81">
-        <v>-0.06138785919381772</v>
+        <v>0.005988013994490727</v>
       </c>
       <c r="G81">
-        <v>0.0878818575029905</v>
+        <v>-0.1433457116067436</v>
       </c>
       <c r="H81">
-        <v>0.01172205625785011</v>
+        <v>0.06081394903799833</v>
       </c>
       <c r="I81">
-        <v>-0.04720199897275187</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>0.07937478429994685</v>
+      </c>
+      <c r="J81">
+        <v>-0.03184312912300348</v>
+      </c>
+      <c r="K81">
+        <v>0.02699427179114761</v>
+      </c>
+      <c r="L81">
+        <v>-0.017290643596288</v>
+      </c>
+      <c r="M81">
+        <v>-0.06134219557279721</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>-0.1087548622535832</v>
+        <v>0.118043616628083</v>
       </c>
       <c r="C82">
-        <v>-0.03154361694804077</v>
+        <v>0.05228362578942413</v>
       </c>
       <c r="D82">
-        <v>0.06507979207916448</v>
+        <v>-0.02275235530253023</v>
       </c>
       <c r="E82">
-        <v>-0.08379853089945198</v>
+        <v>-0.001377262225702591</v>
       </c>
       <c r="F82">
-        <v>-0.1537824278652609</v>
+        <v>-0.0393389254576831</v>
       </c>
       <c r="G82">
-        <v>0.21943453306362</v>
+        <v>-0.2265502815972454</v>
       </c>
       <c r="H82">
-        <v>0.07189201323564796</v>
+        <v>0.05935145336917803</v>
       </c>
       <c r="I82">
-        <v>-0.05468418980974851</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>0.1089013308476826</v>
+      </c>
+      <c r="J82">
+        <v>-0.07053731313634032</v>
+      </c>
+      <c r="K82">
+        <v>0.01232831630689433</v>
+      </c>
+      <c r="L82">
+        <v>0.03578674577978851</v>
+      </c>
+      <c r="M82">
+        <v>0.02003784546958566</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>-0.05466600946712589</v>
+        <v>0.07679584426288771</v>
       </c>
       <c r="C83">
-        <v>-0.03440517438394252</v>
+        <v>0.06421818663982372</v>
       </c>
       <c r="D83">
-        <v>0.04041640435656797</v>
+        <v>-0.01384859184846194</v>
       </c>
       <c r="E83">
-        <v>-0.02834238655263025</v>
+        <v>0.008017004516434591</v>
       </c>
       <c r="F83">
-        <v>0.0315587723610067</v>
+        <v>-0.006703626185639444</v>
       </c>
       <c r="G83">
-        <v>-0.09033663256998017</v>
+        <v>-0.0234797903297931</v>
       </c>
       <c r="H83">
-        <v>0.06788251358678178</v>
+        <v>-0.048432922569582</v>
       </c>
       <c r="I83">
-        <v>0.05633852382430996</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>-0.04961708719239991</v>
+      </c>
+      <c r="J83">
+        <v>0.005083728654214434</v>
+      </c>
+      <c r="K83">
+        <v>0.00330264822140773</v>
+      </c>
+      <c r="L83">
+        <v>0.1393099487495106</v>
+      </c>
+      <c r="M83">
+        <v>-0.03227662605015418</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>-0.04784624774029858</v>
+        <v>0.0441808299091111</v>
       </c>
       <c r="C84">
-        <v>-0.03182818140516547</v>
+        <v>-0.02047541366547912</v>
       </c>
       <c r="D84">
-        <v>-0.03233141772798297</v>
+        <v>-0.004091522154127035</v>
       </c>
       <c r="E84">
-        <v>-0.004809649312440642</v>
+        <v>-0.02094132237575724</v>
       </c>
       <c r="F84">
-        <v>0.1038906873181999</v>
+        <v>0.01089492073758555</v>
       </c>
       <c r="G84">
-        <v>0.09166325174737988</v>
+        <v>0.2132778336355938</v>
       </c>
       <c r="H84">
-        <v>0.02776297616722604</v>
+        <v>0.220975780818145</v>
       </c>
       <c r="I84">
-        <v>0.02678926963889623</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>-0.07155207299668094</v>
+      </c>
+      <c r="J84">
+        <v>-0.03019637558461076</v>
+      </c>
+      <c r="K84">
+        <v>0.06297647229595786</v>
+      </c>
+      <c r="L84">
+        <v>0.1531569004934699</v>
+      </c>
+      <c r="M84">
+        <v>0.5634916743553002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>-0.08080455027206848</v>
+        <v>0.1082206523805913</v>
       </c>
       <c r="C85">
-        <v>-0.04299976448456834</v>
+        <v>0.05178532398222661</v>
       </c>
       <c r="D85">
-        <v>0.06005510151501101</v>
+        <v>-0.01473614678767634</v>
       </c>
       <c r="E85">
-        <v>-0.0079792618537419</v>
+        <v>0.03382481691361977</v>
       </c>
       <c r="F85">
-        <v>-0.1149481122265505</v>
+        <v>-0.000639806818320027</v>
       </c>
       <c r="G85">
-        <v>0.1551425906222583</v>
+        <v>-0.1671559884299862</v>
       </c>
       <c r="H85">
-        <v>0.002626745738486783</v>
+        <v>0.03767424454371138</v>
       </c>
       <c r="I85">
-        <v>-0.05007545559793246</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>0.08759958481760262</v>
+      </c>
+      <c r="J85">
+        <v>-0.07349567121742208</v>
+      </c>
+      <c r="K85">
+        <v>-0.01956634485244136</v>
+      </c>
+      <c r="L85">
+        <v>-0.05905508155526085</v>
+      </c>
+      <c r="M85">
+        <v>0.003067863990542393</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>-0.03805876669177777</v>
+        <v>0.06920507258573204</v>
       </c>
       <c r="C86">
-        <v>-0.04525598837233542</v>
+        <v>0.01979641650787753</v>
       </c>
       <c r="D86">
-        <v>0.005051317898195023</v>
+        <v>0.01095521450081222</v>
       </c>
       <c r="E86">
-        <v>0.04273224812024905</v>
+        <v>0.08767874893278395</v>
       </c>
       <c r="F86">
-        <v>0.002880348145140218</v>
+        <v>0.05283681694706751</v>
       </c>
       <c r="G86">
-        <v>-0.06536662989300647</v>
+        <v>0.4132259997845821</v>
       </c>
       <c r="H86">
-        <v>-0.09936997069290521</v>
+        <v>0.4203579423152013</v>
       </c>
       <c r="I86">
-        <v>-0.05894273069660547</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>0.2398401110084151</v>
+      </c>
+      <c r="J86">
+        <v>-0.4490125550844743</v>
+      </c>
+      <c r="K86">
+        <v>0.3311051700081288</v>
+      </c>
+      <c r="L86">
+        <v>-0.177147595872445</v>
+      </c>
+      <c r="M86">
+        <v>-0.02731158494470657</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>-0.09043591488783054</v>
+        <v>0.1098099234870174</v>
       </c>
       <c r="C87">
-        <v>-0.06690139732210307</v>
+        <v>0.06596157641304674</v>
       </c>
       <c r="D87">
-        <v>0.01204673718100038</v>
+        <v>0.03872347901234129</v>
       </c>
       <c r="E87">
-        <v>0.135132942144791</v>
+        <v>0.0351779057081789</v>
       </c>
       <c r="F87">
-        <v>-0.1179634219749582</v>
+        <v>0.160717016324854</v>
       </c>
       <c r="G87">
-        <v>-0.1039234109383289</v>
+        <v>0.09199159185219075</v>
       </c>
       <c r="H87">
-        <v>-0.01722368682775774</v>
+        <v>-0.1367100117086564</v>
       </c>
       <c r="I87">
-        <v>0.109513674651157</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>-0.01494130193606852</v>
+      </c>
+      <c r="J87">
+        <v>-0.06095194356993183</v>
+      </c>
+      <c r="K87">
+        <v>0.03029152708578266</v>
+      </c>
+      <c r="L87">
+        <v>0.1042870159373534</v>
+      </c>
+      <c r="M87">
+        <v>0.05964597324309772</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>-0.04668432800145392</v>
+        <v>0.0573323922495993</v>
       </c>
       <c r="C88">
-        <v>-0.04129122210120493</v>
+        <v>0.05261365248009994</v>
       </c>
       <c r="D88">
-        <v>0.01854700874389045</v>
+        <v>-0.02860958315975397</v>
       </c>
       <c r="E88">
-        <v>0.003027910448792077</v>
+        <v>0.01451763292185351</v>
       </c>
       <c r="F88">
-        <v>0.003990473920588638</v>
+        <v>0.02615152879888057</v>
       </c>
       <c r="G88">
-        <v>-0.01410768484811303</v>
+        <v>-0.02944946352538543</v>
       </c>
       <c r="H88">
-        <v>0.002564105450531652</v>
+        <v>0.02223165012115597</v>
       </c>
       <c r="I88">
-        <v>0.04718611479733234</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>-0.04200174569697359</v>
+      </c>
+      <c r="J88">
+        <v>0.001388413638812748</v>
+      </c>
+      <c r="K88">
+        <v>0.02689435433157972</v>
+      </c>
+      <c r="L88">
+        <v>0.02082350323131051</v>
+      </c>
+      <c r="M88">
+        <v>-0.02428999588124745</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>-0.1797636115487223</v>
+        <v>0.2173174816670491</v>
       </c>
       <c r="C89">
-        <v>0.3136331858073441</v>
+        <v>-0.3556416458723807</v>
       </c>
       <c r="D89">
-        <v>0.0618151020269443</v>
+        <v>0.04051762224869203</v>
       </c>
       <c r="E89">
-        <v>0.08645234945365149</v>
+        <v>0.08096119479219099</v>
       </c>
       <c r="F89">
-        <v>0.02082557810468742</v>
+        <v>0.008707131483740726</v>
       </c>
       <c r="G89">
-        <v>-0.02543429475193966</v>
+        <v>-0.004560253751026058</v>
       </c>
       <c r="H89">
-        <v>0.01296090729220806</v>
+        <v>0.02428609306619465</v>
       </c>
       <c r="I89">
-        <v>-0.01029606173800414</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>-0.0175112969998624</v>
+      </c>
+      <c r="J89">
+        <v>0.05307841933552324</v>
+      </c>
+      <c r="K89">
+        <v>0.05364048021517127</v>
+      </c>
+      <c r="L89">
+        <v>0.02604264120410777</v>
+      </c>
+      <c r="M89">
+        <v>-0.113393648189586</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>-0.1333797854794252</v>
+        <v>0.1498862680083621</v>
       </c>
       <c r="C90">
-        <v>0.2730273382990374</v>
+        <v>-0.2697281260006177</v>
       </c>
       <c r="D90">
-        <v>-0.001823636155986044</v>
+        <v>-0.007724654954480589</v>
       </c>
       <c r="E90">
-        <v>0.05531990441988197</v>
+        <v>0.01854244637629575</v>
       </c>
       <c r="F90">
-        <v>0.002820101741555706</v>
+        <v>0.03121329719836078</v>
       </c>
       <c r="G90">
-        <v>-0.04340295625891972</v>
+        <v>0.001932187196115835</v>
       </c>
       <c r="H90">
-        <v>-0.04410079203213588</v>
+        <v>-0.01726153036342624</v>
       </c>
       <c r="I90">
-        <v>0.1072811322865919</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>-0.06767278679784675</v>
+      </c>
+      <c r="J90">
+        <v>0.01735729909143825</v>
+      </c>
+      <c r="K90">
+        <v>0.02164493673907964</v>
+      </c>
+      <c r="L90">
+        <v>0.0001414458881707626</v>
+      </c>
+      <c r="M90">
+        <v>0.04543200294729795</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>-0.0812318591941935</v>
+        <v>0.0768990157620551</v>
       </c>
       <c r="C91">
-        <v>-0.02887461539264085</v>
+        <v>0.05069024014649296</v>
       </c>
       <c r="D91">
-        <v>0.01557243025647922</v>
+        <v>0.0101787080700229</v>
       </c>
       <c r="E91">
-        <v>0.01527463448505965</v>
+        <v>0.008921397336815609</v>
       </c>
       <c r="F91">
-        <v>-0.04726468731559091</v>
+        <v>-0.0146224815462237</v>
       </c>
       <c r="G91">
-        <v>0.09669341489741008</v>
+        <v>-0.08227153679660489</v>
       </c>
       <c r="H91">
-        <v>0.01957482946455525</v>
+        <v>0.02334925112498933</v>
       </c>
       <c r="I91">
-        <v>-0.05726515875903387</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.06353420792774783</v>
+      </c>
+      <c r="J91">
+        <v>-0.002180851098596772</v>
+      </c>
+      <c r="K91">
+        <v>-0.0008361461570607311</v>
+      </c>
+      <c r="L91">
+        <v>-0.03233985392769328</v>
+      </c>
+      <c r="M91">
+        <v>0.001336030210569006</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>-0.1511483185653661</v>
+        <v>0.1655771726834476</v>
       </c>
       <c r="C92">
-        <v>0.3035204215017938</v>
+        <v>-0.3041647195684665</v>
       </c>
       <c r="D92">
-        <v>0.03869136148344091</v>
+        <v>0.02964112229106148</v>
       </c>
       <c r="E92">
-        <v>0.03507733987372817</v>
+        <v>0.04803820375503352</v>
       </c>
       <c r="F92">
-        <v>0.07145522270249674</v>
+        <v>0.006412230797893336</v>
       </c>
       <c r="G92">
-        <v>0.03000931293842015</v>
+        <v>-0.03268220096525642</v>
       </c>
       <c r="H92">
-        <v>0.02143142179194901</v>
+        <v>0.01940713252245556</v>
       </c>
       <c r="I92">
-        <v>-0.009816478760676376</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>-0.01743603775015056</v>
+      </c>
+      <c r="J92">
+        <v>0.03640588547436072</v>
+      </c>
+      <c r="K92">
+        <v>0.005066704122463488</v>
+      </c>
+      <c r="L92">
+        <v>0.002476996438889528</v>
+      </c>
+      <c r="M92">
+        <v>-0.04593706845743445</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>-0.1463812212133375</v>
+        <v>0.1641025368362134</v>
       </c>
       <c r="C93">
-        <v>0.2464358383041779</v>
+        <v>-0.2877917642503026</v>
       </c>
       <c r="D93">
-        <v>0.01218878432361247</v>
+        <v>-0.02760878742789167</v>
       </c>
       <c r="E93">
-        <v>0.02463877946567119</v>
+        <v>0.007812236632180208</v>
       </c>
       <c r="F93">
-        <v>0.03110857713121045</v>
+        <v>0.009162277583788552</v>
       </c>
       <c r="G93">
-        <v>-0.03609915827429033</v>
+        <v>0.01134875317763475</v>
       </c>
       <c r="H93">
-        <v>-0.004963839815354644</v>
+        <v>0.02135887010827905</v>
       </c>
       <c r="I93">
-        <v>0.03482810765021135</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>-0.02275480734110305</v>
+      </c>
+      <c r="J93">
+        <v>-0.03194604489657158</v>
+      </c>
+      <c r="K93">
+        <v>0.01137898525480075</v>
+      </c>
+      <c r="L93">
+        <v>0.02373170861644203</v>
+      </c>
+      <c r="M93">
+        <v>0.02443929865001515</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>-0.08763678065742023</v>
+        <v>0.1068137408731751</v>
       </c>
       <c r="C94">
-        <v>-0.05981072558457597</v>
+        <v>0.07561607676177967</v>
       </c>
       <c r="D94">
-        <v>0.01873035546844808</v>
+        <v>0.01222144997920033</v>
       </c>
       <c r="E94">
-        <v>0.005257727997083888</v>
+        <v>0.01642684098336767</v>
       </c>
       <c r="F94">
-        <v>-0.07033323816646916</v>
+        <v>-0.0389506711315168</v>
       </c>
       <c r="G94">
-        <v>0.1288446064747974</v>
+        <v>-0.1232958437960547</v>
       </c>
       <c r="H94">
-        <v>0.06325681586316835</v>
+        <v>0.03303480843112098</v>
       </c>
       <c r="I94">
-        <v>-0.1292592370458766</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>0.06127320233358844</v>
+      </c>
+      <c r="J94">
+        <v>0.000221891320535842</v>
+      </c>
+      <c r="K94">
+        <v>-0.01661937204949821</v>
+      </c>
+      <c r="L94">
+        <v>-0.03883388135685151</v>
+      </c>
+      <c r="M94">
+        <v>-0.04027313944163165</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>-0.100875861306036</v>
+        <v>0.1338014126104</v>
       </c>
       <c r="C95">
-        <v>-0.08277758829358071</v>
+        <v>0.06951474718188316</v>
       </c>
       <c r="D95">
-        <v>0.09208523807688185</v>
+        <v>0.01126763930621939</v>
       </c>
       <c r="E95">
-        <v>0.01705163458828693</v>
+        <v>0.07081138907539512</v>
       </c>
       <c r="F95">
-        <v>0.05301172410124055</v>
+        <v>0.05496043605864107</v>
       </c>
       <c r="G95">
-        <v>-0.02214670818091805</v>
+        <v>0.1865202669840881</v>
       </c>
       <c r="H95">
-        <v>-0.04371481050554426</v>
+        <v>0.07345135534706344</v>
       </c>
       <c r="I95">
-        <v>0.03496087115577508</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>-0.1554779506404465</v>
+      </c>
+      <c r="J95">
+        <v>-0.1475427917002588</v>
+      </c>
+      <c r="K95">
+        <v>0.08875007035716749</v>
+      </c>
+      <c r="L95">
+        <v>-0.009671969566728616</v>
+      </c>
+      <c r="M95">
+        <v>-0.2561851618640958</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3490,97 +4642,145 @@
       <c r="I96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>-0.2927004035585318</v>
+        <v>0.1694544051469538</v>
       </c>
       <c r="C97">
-        <v>-0.0666216277798895</v>
+        <v>0.005911600309298093</v>
       </c>
       <c r="D97">
-        <v>-0.8670602362699837</v>
+        <v>0.09729430375424997</v>
       </c>
       <c r="E97">
-        <v>-0.1947156808140779</v>
+        <v>-0.9361078467574037</v>
       </c>
       <c r="F97">
-        <v>0.06381842746092257</v>
+        <v>0.02718906946437984</v>
       </c>
       <c r="G97">
-        <v>-0.04961459033778761</v>
+        <v>0.1047308476642451</v>
       </c>
       <c r="H97">
-        <v>-0.06395825255805103</v>
+        <v>0.03887897575973503</v>
       </c>
       <c r="I97">
-        <v>0.01781157981343585</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>-0.01512365143248677</v>
+      </c>
+      <c r="J97">
+        <v>0.03261353742901905</v>
+      </c>
+      <c r="K97">
+        <v>0.05209244304369823</v>
+      </c>
+      <c r="L97">
+        <v>-0.009332476213382405</v>
+      </c>
+      <c r="M97">
+        <v>-0.03594598262800969</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>-0.267226489068605</v>
+        <v>0.2616350881892577</v>
       </c>
       <c r="C98">
-        <v>-0.09949025840234207</v>
+        <v>0.1195934991386995</v>
       </c>
       <c r="D98">
-        <v>0.1770411615412631</v>
+        <v>-0.01063278460304348</v>
       </c>
       <c r="E98">
-        <v>-0.2845895076771067</v>
+        <v>0.02378667204511188</v>
       </c>
       <c r="F98">
-        <v>0.3770105007379223</v>
+        <v>-0.4126309296371659</v>
       </c>
       <c r="G98">
-        <v>-0.3451107635586614</v>
+        <v>0.2660823097207239</v>
       </c>
       <c r="H98">
-        <v>0.3353287381519312</v>
+        <v>-0.1887282516567148</v>
       </c>
       <c r="I98">
-        <v>0.1047639629325079</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>0.2072856086527293</v>
+      </c>
+      <c r="J98">
+        <v>0.04866064968993392</v>
+      </c>
+      <c r="K98">
+        <v>-0.2026664622816066</v>
+      </c>
+      <c r="L98">
+        <v>0.5762003260891417</v>
+      </c>
+      <c r="M98">
+        <v>-0.0321717893205944</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>-0.04793368724855481</v>
+        <v>0.06658675081649933</v>
       </c>
       <c r="C99">
-        <v>-0.02834003065540762</v>
+        <v>0.04760953803817614</v>
       </c>
       <c r="D99">
-        <v>-0.01414344498629639</v>
+        <v>0.01908064301490385</v>
       </c>
       <c r="E99">
-        <v>-0.05227448071980768</v>
+        <v>0.01006776030403577</v>
       </c>
       <c r="F99">
-        <v>-0.2108672890327571</v>
+        <v>-0.00250852540258434</v>
       </c>
       <c r="G99">
-        <v>-0.2786136781167328</v>
+        <v>-0.02452846530461844</v>
       </c>
       <c r="H99">
-        <v>0.6172979438530274</v>
+        <v>-0.09575396763589125</v>
       </c>
       <c r="I99">
-        <v>-0.4678031756466969</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>0.2658580237093988</v>
+      </c>
+      <c r="J99">
+        <v>-0.03775496221816321</v>
+      </c>
+      <c r="K99">
+        <v>0.1573825970275065</v>
+      </c>
+      <c r="L99">
+        <v>0.01553401235223293</v>
+      </c>
+      <c r="M99">
+        <v>-0.4852858242004621</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3606,39 +4806,63 @@
       <c r="I100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>-0.04788641857517732</v>
+        <v>0.04495160676328797</v>
       </c>
       <c r="C101">
-        <v>-0.01699286110211306</v>
+        <v>0.02282080790924955</v>
       </c>
       <c r="D101">
-        <v>0.0132196734187221</v>
+        <v>0.001227208982357553</v>
       </c>
       <c r="E101">
-        <v>0.02269908813891839</v>
+        <v>0.02277791553779758</v>
       </c>
       <c r="F101">
-        <v>0.01073128071504015</v>
+        <v>0.04486000949691869</v>
       </c>
       <c r="G101">
-        <v>0.01135418181347989</v>
+        <v>-0.03656384940831981</v>
       </c>
       <c r="H101">
-        <v>-0.02832730956572013</v>
+        <v>0.05603897093467883</v>
       </c>
       <c r="I101">
-        <v>0.007354235991963126</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>-0.01694385266596802</v>
+      </c>
+      <c r="J101">
+        <v>-0.03822966459812081</v>
+      </c>
+      <c r="K101">
+        <v>-0.03321343973789579</v>
+      </c>
+      <c r="L101">
+        <v>0.03583353973422874</v>
+      </c>
+      <c r="M101">
+        <v>0.01804775641445577</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3664,10 +4888,22 @@
       <c r="I102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3693,10 +4929,22 @@
       <c r="I103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3720,6 +4968,18 @@
         <v>0</v>
       </c>
       <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
